--- a/Zillow_API/Lincoln_data.xlsx
+++ b/Zillow_API/Lincoln_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alan II, Lincoln, CA 95648</t>
+          <t>Sienna, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$573,950+</t>
+          <t>$582,950+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sienna, Lincoln, CA 95648</t>
+          <t>Seth, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$582,950+</t>
+          <t>$639,950+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>3,030</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Seth, Lincoln, CA 95648</t>
+          <t>Vivien, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$639,950+</t>
+          <t>$984,517+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3,030</t>
+          <t>3,452</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vivien, Lincoln, CA 95648</t>
+          <t>Andrea, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$984,517+</t>
+          <t>$622,950+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3,452</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andrea, Lincoln, CA 95648</t>
+          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$622,950+</t>
+          <t>$597,990+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,622</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2050, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$597,990+</t>
+          <t>$552,990+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2,622</t>
+          <t>2,050</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plan 2050, Lincoln, CA 95648</t>
+          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$552,990+</t>
+          <t>$533,990+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2,050</t>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$533,990+</t>
+          <t>$518,990+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>2,020</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$518,990+</t>
+          <t>$560,990+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$560,990+</t>
+          <t>$579,990+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$579,990+</t>
+          <t>$541,990+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,310</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Willow Plan 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$541,990+</t>
+          <t>$578,990+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2,310</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Willow Plan 3, Lincoln, CA 95648</t>
+          <t>Residence 2145, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$578,990+</t>
+          <t>$602,504+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Residence 2145, Lincoln, CA 95648</t>
+          <t>Residence 2679, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$602,504+</t>
+          <t>$671,569+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Residence 2679, Lincoln, CA 95648</t>
+          <t>Residence 3104, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$671,569+</t>
+          <t>$689,801+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Residence 3104, Lincoln, CA 95648</t>
+          <t>Residence 3312, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$689,801+</t>
+          <t>$727,421+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Residence 3312, Lincoln, CA 95648</t>
+          <t>Ascot Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$727,421+</t>
+          <t>$719,000+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ascot Plan 7, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$719,000+</t>
+          <t>$772,500+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$772,500+</t>
+          <t>$687,500+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,293</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$687,500+</t>
+          <t>$712,500+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>2,627</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$712,500+</t>
+          <t>$722,500+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2,627</t>
+          <t>2,827</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1096,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Plan 4137, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$722,500+</t>
+          <t>$1,146,950+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2,827</t>
+          <t>4,137</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan 4137, Lincoln, CA 95648</t>
+          <t>Plan 2705, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,146,950+</t>
+          <t>$978,950+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4,137</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -1156,27 +1156,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan 2705, Lincoln, CA 95648</t>
+          <t>Plan 3255, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$978,950+</t>
+          <t>$1,066,950+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plan 3255, Lincoln, CA 95648</t>
+          <t>Plan 2776, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,066,950+</t>
+          <t>$1,021,950+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Plan 2776, Lincoln, CA 95648</t>
+          <t>Plan 2360, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$1,021,950+</t>
+          <t>$903,950+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,360</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Plan 2360, Lincoln, CA 95648</t>
+          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$903,950+</t>
+          <t>$508,990+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>1,608</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
+          <t>Affirm, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$508,990+</t>
+          <t>$635,999+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>1,622</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Affirm, Lincoln, CA 95648</t>
+          <t>Unite, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$635,999+</t>
+          <t>$612,999+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1,622</t>
+          <t>1,448</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Unite, Lincoln, CA 95648</t>
+          <t>Explore, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$612,999+</t>
+          <t>$674,999+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1,448</t>
+          <t>1,868</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Explore, Lincoln, CA 95648</t>
+          <t>Venture, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$674,999+</t>
+          <t>$707,999+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1,868</t>
+          <t>2,048</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Venture, Lincoln, CA 95648</t>
+          <t>Discover, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$707,999+</t>
+          <t>$739,999+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Discover, Lincoln, CA 95648</t>
+          <t>Proclaim, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$739,999+</t>
+          <t>$744,999+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>2,141</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proclaim, Lincoln, CA 95648</t>
+          <t>Vertex, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$744,999+</t>
+          <t>$920,499+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2,141</t>
+          <t>2,546</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Vertex, Lincoln, CA 95648</t>
+          <t>Perspective, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$920,499+</t>
+          <t>$759,999+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2,546</t>
+          <t>2,332</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Perspective, Lincoln, CA 95648</t>
+          <t>Pinnacle, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$759,999+</t>
+          <t>$968,499+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>2,850</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1546,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pinnacle, Lincoln, CA 95648</t>
+          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$968,499+</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>849 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>$969,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$2,999,999</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2,584</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>849 Hadley Dr, Lincoln, CA 95648</t>
+          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$969,000</t>
+          <t>$692,929</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$974,900</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>3,833</t>
         </is>
       </c>
     </row>
@@ -1696,27 +1696,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
+          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$692,929</t>
+          <t>$2,800,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>150.00</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$974,900</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3,833</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -1756,27 +1756,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$2,800,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1308 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$574,455</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>796 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$889,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1308 Grant St, Lincoln, CA 95648</t>
+          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$574,455</t>
+          <t>$769,900</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>796 Lodge Way, Lincoln, CA 95648</t>
+          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$889,000</t>
+          <t>$570,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
+          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$769,900</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>1116 Fox Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$570,000</t>
+          <t>$374,900</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$439,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.80</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2026,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1116 Fox Ln, Lincoln, CA 95648</t>
+          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$374,900</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
+          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$439,000</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$1,399,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>3,371</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>100 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$1,450,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>4,450</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>301 Felton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$1,399,000</t>
+          <t>$779,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3,371</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2176,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>100 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$1,450,000</t>
+          <t>$3,850,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4,450</t>
+          <t>2,069</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2206,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>301 Felton Ct, Lincoln, CA 95648</t>
+          <t>429 Fuente Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$779,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -2236,27 +2236,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
+          <t>145 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$3,850,000</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2,069</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2266,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>429 Fuente Pl, Lincoln, CA 95648</t>
+          <t>619 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>21.40</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>145 W Wise Rd, Lincoln, CA 95648</t>
+          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$619,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2,099</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>619 Valley View Cir, Lincoln, CA 95648</t>
+          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$749,950</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>2,830</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
+          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$619,000</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>359.40</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2386,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>Meadow Plan 13, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$749,950</t>
+          <t>$870,990+</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2,830</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2416,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
+          <t>Harbor Plan 12, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$852,990+</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>2,823</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Meadow Plan 13, Lincoln, CA 95648</t>
+          <t>Glacier Plan 11, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$870,990+</t>
+          <t>$822,990+</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,655</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Harbor Plan 12, Lincoln, CA 95648</t>
+          <t>Basin Plan 10, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$852,990+</t>
+          <t>$802,990+</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Glacier Plan 11, Lincoln, CA 95648</t>
+          <t>Quail Plan 9, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$822,990+</t>
+          <t>$702,990+</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2,655</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Basin Plan 10, Lincoln, CA 95648</t>
+          <t>Mallard Plan 8, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$802,990+</t>
+          <t>$690,990+</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Quail Plan 9, Lincoln, CA 95648</t>
+          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$702,990+</t>
+          <t>$670,990+</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mallard Plan 8, Lincoln, CA 95648</t>
+          <t>River Plan 6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$690,990+</t>
+          <t>$616,990+</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
+          <t>Lake Plan 5, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$670,990+</t>
+          <t>$605,990+</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>River Plan 6, Lincoln, CA 95648</t>
+          <t>Redwood Plan 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$616,990+</t>
+          <t>$512,990+</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lake Plan 5, Lincoln, CA 95648</t>
+          <t>Cedar Plan 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$605,990+</t>
+          <t>$492,900+</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2716,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Redwood Plan 2, Lincoln, CA 95648</t>
+          <t>Sutherland, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$512,990+</t>
+          <t>$607,950+</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -2746,27 +2746,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cedar Plan 1, Lincoln, CA 95648</t>
+          <t>Alan II, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$492,900+</t>
+          <t>$573,950+</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>1,990</t>
         </is>
       </c>
     </row>
@@ -2776,27 +2776,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sutherland, Lincoln, CA 95648</t>
+          <t>152 O St #6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$607,950+</t>
+          <t>$160,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -2806,27 +2806,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
+          <t>117 Cresta Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$1,324,900</t>
+          <t>$1,598,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3,433</t>
+          <t>5,600</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>152 O St #6, Lincoln, CA 95648</t>
+          <t>310 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$160,000</t>
+          <t>$656,999</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -2866,27 +2866,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>117 Cresta Ct, Lincoln, CA 95648</t>
+          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$1,598,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>5,600</t>
+          <t>2,277</t>
         </is>
       </c>
     </row>
@@ -2896,27 +2896,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>310 Lexington Ct, Lincoln, CA 95648</t>
+          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$656,999</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$594,999</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2,277</t>
+          <t>2,237</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
+          <t>1879 Echo Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$849,900</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -2986,27 +2986,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
+          <t>1775 Stone House Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$594,999</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2,237</t>
+          <t>1,740</t>
         </is>
       </c>
     </row>
@@ -3016,27 +3016,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1879 Echo Ln, Lincoln, CA 95648</t>
+          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$849,900</t>
+          <t>$734,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -3046,27 +3046,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1775 Stone House Ln, Lincoln, CA 95648</t>
+          <t>1660 Bella Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$1,575,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1,740</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
+          <t>1392 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$575,955</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3106,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1660 Bella Cir, Lincoln, CA 95648</t>
+          <t>1258 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$1,575,000</t>
+          <t>$626,124</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3136,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1392 Grant St, Lincoln, CA 95648</t>
+          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$575,955</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>1,400</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1258 Watson St, Lincoln, CA 95648</t>
+          <t>1921 Glenveagh Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$626,124</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,108</t>
         </is>
       </c>
     </row>
@@ -3196,27 +3196,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
+          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$367,500</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -3226,27 +3226,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1921 Glenveagh Ln, Lincoln, CA 95648</t>
+          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,149,800</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2,108</t>
+          <t>2,134</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3256,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1846 Cliff Swallow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$367,500</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>2,264</t>
         </is>
       </c>
     </row>
@@ -3286,27 +3286,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$875,500</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1846 Cliff Swallow Ln, Lincoln, CA 95648</t>
+          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$1,069,620</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2,264</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -3346,27 +3346,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
+          <t>765 Valencia St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$875,500</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>3,061</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3376,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>0 Moore Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$1,069,620</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>765 Valencia St, Lincoln, CA 95648</t>
+          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$1,037,060</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3,061</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -3436,27 +3436,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0 Moore Rd, Lincoln, CA 95648</t>
+          <t>330 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$684,174</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>2,779</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>993 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$1,037,060</t>
+          <t>$950,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -3496,27 +3496,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>330 Lexington Ct, Lincoln, CA 95648</t>
+          <t>700 Karchner Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$684,174</t>
+          <t>$1,599,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2,779</t>
+          <t>4,172</t>
         </is>
       </c>
     </row>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>993 Hadley Dr, Lincoln, CA 95648</t>
+          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$950,000</t>
+          <t>$983,720</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>700 Karchner Rd, Lincoln, CA 95648</t>
+          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$1,599,000</t>
+          <t>$1,078,390</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4,172</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$983,720</t>
+          <t>$1,007,690</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3616,27 +3616,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$1,078,390</t>
+          <t>$1,001,450</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -3646,17 +3646,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$1,007,690</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>792 Riley Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$1,001,450</t>
+          <t>$779,900</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -3706,27 +3706,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>1697 Storeyfield, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$980,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3,717</t>
         </is>
       </c>
     </row>
@@ -3736,27 +3736,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>792 Riley Way, Lincoln, CA 95648</t>
+          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$779,900</t>
+          <t>$1,195,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>5,232</t>
         </is>
       </c>
     </row>
@@ -3766,27 +3766,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1697 Storeyfield, Lincoln, CA 95648</t>
+          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$980,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3,717</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
+          <t>100 Barley Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$797,500</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>5,232</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3826,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
+          <t>2400 3rd St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$633,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,460</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>100 Barley Ct, Lincoln, CA 95648</t>
+          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$797,500</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>7,465</t>
         </is>
       </c>
     </row>
@@ -3886,27 +3886,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2400 3rd St, Lincoln, CA 95648</t>
+          <t>420 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$633,000</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2,460</t>
+          <t>1,928</t>
         </is>
       </c>
     </row>
@@ -3916,27 +3916,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
+          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$865,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>7,465</t>
+          <t>3,489</t>
         </is>
       </c>
     </row>
@@ -3946,27 +3946,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>420 7th St, Lincoln, CA 95648</t>
+          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$699,900</t>
+          <t>$2,999,999</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>2,584</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$865,000</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3,489</t>
+          <t>3,281</t>
         </is>
       </c>
     </row>
@@ -4006,27 +4006,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
+          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -4036,27 +4036,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>1519 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$465,000</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>3,281</t>
+          <t>1,201</t>
         </is>
       </c>
     </row>
@@ -4066,27 +4066,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
+          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$762,990</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,846</t>
         </is>
       </c>
     </row>
@@ -4096,27 +4096,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1519 7th St, Lincoln, CA 95648</t>
+          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$465,000</t>
+          <t>$480,000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -4126,27 +4126,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
+          <t>1078 Montague Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$762,990</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -4156,27 +4156,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
+          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$480,000</t>
+          <t>$555,000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>1,700</t>
         </is>
       </c>
     </row>
@@ -4186,27 +4186,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1078 Montague Ln, Lincoln, CA 95648</t>
+          <t>205 Akashi Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$719,000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
+          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$555,000</t>
+          <t>$829,000</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>2,192</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>205 Akashi Ct, Lincoln, CA 95648</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$719,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -4276,27 +4276,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
+          <t>301 Tasso Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$829,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2,192</t>
+          <t>3,236</t>
         </is>
       </c>
     </row>
@@ -4306,17 +4306,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>340 Lilac Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$539,950</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4336,27 +4336,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>301 Tasso Pl, Lincoln, CA 95648</t>
+          <t>306 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$744,373</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3,236</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>340 Lilac Ln, Lincoln, CA 95648</t>
+          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$539,950</t>
+          <t>$606,000</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -4396,27 +4396,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>306 Amelia Ct, Lincoln, CA 95648</t>
+          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$744,373</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -4426,27 +4426,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
+          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$606,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -4456,27 +4456,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
+          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$628,000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2,305</t>
         </is>
       </c>
     </row>
@@ -4486,27 +4486,27 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
+          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$769,000</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -4516,27 +4516,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
+          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$628,000</t>
+          <t>$565,000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>1,570</t>
         </is>
       </c>
     </row>
@@ -4546,17 +4546,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
+          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$769,000</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>1,115</t>
         </is>
       </c>
     </row>
@@ -4576,27 +4576,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
+          <t>696 Linley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$565,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1,570</t>
+          <t>2,809</t>
         </is>
       </c>
     </row>
@@ -4606,27 +4606,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
+          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1,115</t>
+          <t>2,889</t>
         </is>
       </c>
     </row>
@@ -4636,27 +4636,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>696 Linley Ln, Lincoln, CA 95648</t>
+          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2,809</t>
+          <t>1,795</t>
         </is>
       </c>
     </row>
@@ -4666,27 +4666,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
+          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$660,000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2,889</t>
+          <t>2,990</t>
         </is>
       </c>
     </row>
@@ -4696,17 +4696,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
+          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -4726,27 +4726,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
+          <t>1197 Overland Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$660,000</t>
+          <t>$1,190,000</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -4756,27 +4756,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
+          <t>1416 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$626,016</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -4786,27 +4786,27 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1197 Overland Ln, Lincoln, CA 95648</t>
+          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$1,190,000</t>
+          <t>$2,890,000</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>1,058</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1416 Grant St, Lincoln, CA 95648</t>
+          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$626,016</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -4846,17 +4846,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
+          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$2,890,000</t>
+          <t>$539,000</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1,058</t>
+          <t>1,843</t>
         </is>
       </c>
     </row>
@@ -4876,27 +4876,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>584 - 588 L St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>1,122</t>
         </is>
       </c>
     </row>
@@ -4906,17 +4906,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
+          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$539,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1,843</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -4936,27 +4936,27 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>584 - 588 L St, Lincoln, CA 95648</t>
+          <t>401 Via Vistoso, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1,122</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -4966,27 +4966,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
+          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -4996,27 +4996,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>401 Via Vistoso, Lincoln, CA 95648</t>
+          <t>1173 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$678,000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5026,27 +5026,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
+          <t>1697 Donner Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$800,000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1173 Lodge Way, Lincoln, CA 95648</t>
+          <t>1168 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$678,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1697 Donner Ln, Lincoln, CA 95648</t>
+          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$800,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1168 Lodge Way, Lincoln, CA 95648</t>
+          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$806,000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -5146,27 +5146,27 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$1,324,900</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>3,433</t>
         </is>
       </c>
     </row>
@@ -5176,27 +5176,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$806,000</t>
+          <t>$875,000</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>4,235</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
+          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$875,000</t>
+          <t>$540,000</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>1,621</t>
         </is>
       </c>
     </row>
@@ -5236,17 +5236,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
+          <t>696 Geary Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$540,000</t>
+          <t>$518,000</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1,621</t>
+          <t>1,449</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>696 Geary Ln, Lincoln, CA 95648</t>
+          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$518,000</t>
+          <t>$489,900</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1,449</t>
+          <t>1,155</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
+          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$489,900</t>
+          <t>$639,000</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1,155</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
+          <t>601 Yerington Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$639,000</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>601 Yerington Pl, Lincoln, CA 95648</t>
+          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5371,12 +5371,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>1,885</t>
         </is>
       </c>
     </row>
@@ -5386,27 +5386,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
+          <t>700 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$1,495,000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1,885</t>
+          <t>3,696</t>
         </is>
       </c>
     </row>
@@ -5416,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>700 Valley View Cir, Lincoln, CA 95648</t>
+          <t>1440 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$1,495,000</t>
+          <t>$571,295</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3,696</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -5446,17 +5446,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1440 Grant St, Lincoln, CA 95648</t>
+          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$571,295</t>
+          <t>$869,000</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2,349</t>
         </is>
       </c>
     </row>
@@ -5476,17 +5476,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
+          <t>1642 Midford Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$869,000</t>
+          <t>$625,000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2,349</t>
+          <t>2,582</t>
         </is>
       </c>
     </row>
@@ -5506,17 +5506,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1642 Midford Ln, Lincoln, CA 95648</t>
+          <t>906 Heartwood, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2,582</t>
+          <t>2,597</t>
         </is>
       </c>
     </row>
@@ -5536,27 +5536,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>906 Heartwood, Lincoln, CA 95648</t>
+          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$1,071,430</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2,597</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -5566,27 +5566,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
+          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$1,071,430</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>3,482</t>
         </is>
       </c>
     </row>
@@ -5596,27 +5596,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
+          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3,482</t>
+          <t>1,491</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
+          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$545,000</t>
+          <t>$739,900</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1,491</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -5656,27 +5656,27 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
+          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$739,900</t>
+          <t>$1,670,000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>5,397</t>
         </is>
       </c>
     </row>
@@ -5686,27 +5686,27 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
+          <t>317 Arroyo Madrone Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$1,670,000</t>
+          <t>$639,500</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>5,397</t>
+          <t>2,184</t>
         </is>
       </c>
     </row>
@@ -5716,27 +5716,27 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>317 Arroyo Madrone Ct, Lincoln, CA 95648</t>
+          <t>305 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$639,500</t>
+          <t>$689,801</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2,184</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -5746,27 +5746,27 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>305 Amelia Ct, Lincoln, CA 95648</t>
+          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$689,801</t>
+          <t>$629,000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>2,653</t>
         </is>
       </c>
     </row>
@@ -5776,27 +5776,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
+          <t>372 Daylily, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$629,000</t>
+          <t>$644,900</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2,653</t>
+          <t>1,837</t>
         </is>
       </c>
     </row>
@@ -5806,27 +5806,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>888 Downing Cir, Lincoln, CA 95648</t>
+          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$715,000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2,254</t>
+          <t>1,967</t>
         </is>
       </c>
     </row>
@@ -5836,27 +5836,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>372 Daylily, Lincoln, CA 95648</t>
+          <t>708 Yerington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$644,900</t>
+          <t>$1,099,800</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1,837</t>
+          <t>2,745</t>
         </is>
       </c>
     </row>
@@ -5866,27 +5866,27 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
+          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$715,000</t>
+          <t>$790,000</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1,967</t>
+          <t>3,928</t>
         </is>
       </c>
     </row>
@@ -5896,27 +5896,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>708 Yerington Ct, Lincoln, CA 95648</t>
+          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$1,099,800</t>
+          <t>$539,500</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2,745</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -5926,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+          <t>1229 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$790,000</t>
+          <t>$671,327</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>3,928</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -5956,27 +5956,27 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$539,500</t>
+          <t>$677,705</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1229 Watson St, Lincoln, CA 95648</t>
+          <t>100 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$671,327</t>
+          <t>$688,600</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+          <t>121 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$677,705</t>
+          <t>$688,691</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$688,600</t>
+          <t>$685,142</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>121 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$688,691</t>
+          <t>$716,566</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
+          <t>101 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$685,142</t>
+          <t>$727,317</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -6136,27 +6136,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$716,566</t>
+          <t>$619,900</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,067</t>
         </is>
       </c>
     </row>
@@ -6166,27 +6166,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$727,317</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6196,17 +6196,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
+          <t>500 Pickering Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$619,900</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2,067</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
+          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$670,000</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -6256,27 +6256,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>500 Pickering Ct, Lincoln, CA 95648</t>
+          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>3,206</t>
         </is>
       </c>
     </row>
@@ -6286,27 +6286,27 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
+          <t>103 Asti Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$670,000</t>
+          <t>$729,900</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>3,144</t>
         </is>
       </c>
     </row>
@@ -6316,27 +6316,27 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
+          <t>1129 Amelia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$602,504</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3,206</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -6346,57 +6346,27 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>103 Asti Ct, Lincoln, CA 95648</t>
+          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>$729,900</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>3,144</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>1129 Amelia Way, Lincoln, CA 95648</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>$602,504</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>2,145</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Lincoln_data.xlsx
+++ b/Zillow_API/Lincoln_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Beds</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Baths</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Sqft</t>
         </is>
@@ -466,27 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sienna, Lincoln, CA 95648</t>
+          <t>Sutherland, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$582,950+</t>
+          <t>$607,950+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2,290</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -496,27 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seth, Lincoln, CA 95648</t>
+          <t>Alan II, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$639,950+</t>
+          <t>$573,950+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3,030</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1,990</t>
         </is>
       </c>
     </row>
@@ -526,27 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vivien, Lincoln, CA 95648</t>
+          <t>Sienna, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$984,517+</t>
+          <t>$582,950+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3,452</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -556,27 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andrea, Lincoln, CA 95648</t>
+          <t>Seth, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$622,950+</t>
+          <t>$639,950+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2,770</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3,030</t>
         </is>
       </c>
     </row>
@@ -586,27 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
+          <t>Andrea, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$597,990+</t>
+          <t>$622,950+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2,622</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -616,27 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plan 2050, Lincoln, CA 95648</t>
+          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$552,990+</t>
+          <t>$597,990+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2,050</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2,622</t>
         </is>
       </c>
     </row>
@@ -646,27 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2050, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$533,990+</t>
+          <t>$552,990+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2,050</t>
         </is>
       </c>
     </row>
@@ -676,27 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$518,990+</t>
+          <t>$533,990+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -706,27 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$560,990+</t>
+          <t>$518,990+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2,020</t>
         </is>
       </c>
     </row>
@@ -736,27 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$579,990+</t>
+          <t>$560,990+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -766,27 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$541,990+</t>
+          <t>$579,990+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2,310</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -796,27 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Willow Plan 3, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$578,990+</t>
+          <t>$541,990+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2,310</t>
         </is>
       </c>
     </row>
@@ -826,27 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Residence 2145, Lincoln, CA 95648</t>
+          <t>Willow Plan 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$602,504+</t>
+          <t>$578,990+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -856,27 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Residence 2679, Lincoln, CA 95648</t>
+          <t>Residence 2145, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$671,569+</t>
+          <t>$602,504+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -886,27 +961,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Residence 3104, Lincoln, CA 95648</t>
+          <t>Residence 2679, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$689,801+</t>
+          <t>$671,569+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -916,27 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Residence 3312, Lincoln, CA 95648</t>
+          <t>Residence 3104, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$727,421+</t>
+          <t>$689,801+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -946,27 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ascot Plan 7, Lincoln, CA 95648</t>
+          <t>Residence 3312, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$719,000+</t>
+          <t>$727,421+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -976,27 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Ascot Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$772,500+</t>
+          <t>$719,000+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$687,500+</t>
+          <t>$772,500+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1136,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$712,500+</t>
+          <t>$687,500+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1056,7 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2,627</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2,293</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1171,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$722,500+</t>
+          <t>$712,500+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2,827</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2,627</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1206,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Plan 4137, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$1,146,950+</t>
+          <t>$722,500+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4,137</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2,827</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1241,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan 2705, Lincoln, CA 95648</t>
+          <t>Plan 4137, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$978,950+</t>
+          <t>$1,146,950+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4,137</t>
         </is>
       </c>
     </row>
@@ -1156,27 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan 3255, Lincoln, CA 95648</t>
+          <t>Plan 2705, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$1,066,950+</t>
+          <t>$978,950+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1311,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plan 2776, Lincoln, CA 95648</t>
+          <t>Plan 3255, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,021,950+</t>
+          <t>$1,066,950+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1346,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Plan 2360, Lincoln, CA 95648</t>
+          <t>Plan 2776, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$903,950+</t>
+          <t>$1,021,950+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2,360</t>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2360, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$508,990+</t>
+          <t>$903,950+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2,360</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1416,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Affirm, Lincoln, CA 95648</t>
+          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$635,999+</t>
+          <t>$508,990+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1,622</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1,608</t>
         </is>
       </c>
     </row>
@@ -1306,17 +1451,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Unite, Lincoln, CA 95648</t>
+          <t>Affirm, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$612,999+</t>
+          <t>$635,999+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1326,7 +1471,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1,448</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1,622</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1486,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Explore, Lincoln, CA 95648</t>
+          <t>Unite, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$674,999+</t>
+          <t>$612,999+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1356,7 +1506,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1,868</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1,448</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1521,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Venture, Lincoln, CA 95648</t>
+          <t>Explore, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$707,999+</t>
+          <t>$674,999+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1386,7 +1541,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1,868</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1556,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Discover, Lincoln, CA 95648</t>
+          <t>Venture, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$739,999+</t>
+          <t>$707,999+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2,048</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1591,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proclaim, Lincoln, CA 95648</t>
+          <t>Discover, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$744,999+</t>
+          <t>$739,999+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2,141</t>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1626,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vertex, Lincoln, CA 95648</t>
+          <t>Proclaim, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$920,499+</t>
+          <t>$744,999+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2,546</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2,141</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Perspective, Lincoln, CA 95648</t>
+          <t>Vertex, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$759,999+</t>
+          <t>$920,499+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2,546</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1696,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pinnacle, Lincoln, CA 95648</t>
+          <t>Perspective, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$968,499+</t>
+          <t>$759,999+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2,332</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>Pinnacle, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>$968,499+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2,850</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>849 Hadley Dr, Lincoln, CA 95648</t>
+          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$969,000</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1606,17 +1801,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$865,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1626,7 +1821,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3,489</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
+          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$692,929</t>
+          <t>$2,999,999</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2,584</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1871,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
+          <t>849 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$974,900</t>
+          <t>$969,000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3,833</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -1696,27 +1906,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$2,800,000</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1941,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$692,929</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -1756,27 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$974,900</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3,833</t>
         </is>
       </c>
     </row>
@@ -1786,27 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$2,800,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>150.00</t>
         </is>
       </c>
     </row>
@@ -1816,27 +2046,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1308 Grant St, Lincoln, CA 95648</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$574,455</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -1846,27 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>796 Lodge Way, Lincoln, CA 95648</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$889,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -1876,27 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$769,900</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -1906,27 +2151,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>1308 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$570,000</t>
+          <t>$574,455</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -1936,27 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>796 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$889,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -1966,27 +2221,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1116 Fox Ln, Lincoln, CA 95648</t>
+          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$374,900</t>
+          <t>$769,900</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -1996,27 +2256,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
+          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$439,000</t>
+          <t>$570,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>—Beds</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>—Baths</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.80</t>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -2056,27 +2326,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>1116 Fox Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$374,900</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>—Beds</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>—Baths</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>20.00</t>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$1,399,000</t>
+          <t>$439,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3,371</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.80</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>100 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$1,450,000</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4,450</t>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2431,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>301 Felton Ct, Lincoln, CA 95648</t>
+          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$779,000</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
+          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$3,850,000</t>
+          <t>$1,399,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2,069</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3,371</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>429 Fuente Pl, Lincoln, CA 95648</t>
+          <t>100 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,450,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Lincoln/100-Serene-Estates-Ln-95648/home/19574359</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4,450</t>
         </is>
       </c>
     </row>
@@ -2236,27 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>145 W Wise Rd, Lincoln, CA 95648</t>
+          <t>301 Felton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$779,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>619 Valley View Cir, Lincoln, CA 95648</t>
+          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$3,850,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2,069</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
+          <t>429 Fuente Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$619,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>147 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$749,950</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2,830</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
+          <t>619 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>—Beds</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>—Baths</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>359.40</t>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>21.40</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Meadow Plan 13, Lincoln, CA 95648</t>
+          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$870,990+</t>
+          <t>$619,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2,099</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Harbor Plan 12, Lincoln, CA 95648</t>
+          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$852,990+</t>
+          <t>$749,950</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2,830</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Glacier Plan 11, Lincoln, CA 95648</t>
+          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$822,990+</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2,655</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>359.40</t>
         </is>
       </c>
     </row>
@@ -2476,27 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Basin Plan 10, Lincoln, CA 95648</t>
+          <t>Meadow Plan 13, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$802,990+</t>
+          <t>$870,990+</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -2506,17 +2851,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Quail Plan 9, Lincoln, CA 95648</t>
+          <t>Harbor Plan 12, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$702,990+</t>
+          <t>$852,990+</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2526,7 +2871,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2,823</t>
         </is>
       </c>
     </row>
@@ -2536,17 +2886,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mallard Plan 8, Lincoln, CA 95648</t>
+          <t>Glacier Plan 11, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$690,990+</t>
+          <t>$822,990+</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2556,7 +2906,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2,655</t>
         </is>
       </c>
     </row>
@@ -2566,27 +2921,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
+          <t>Basin Plan 10, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$670,990+</t>
+          <t>$802,990+</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2956,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>River Plan 6, Lincoln, CA 95648</t>
+          <t>Quail Plan 9, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$616,990+</t>
+          <t>$702,990+</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2616,7 +2976,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -2626,17 +2991,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lake Plan 5, Lincoln, CA 95648</t>
+          <t>Mallard Plan 8, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$605,990+</t>
+          <t>$690,990+</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2646,7 +3011,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -2656,17 +3026,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Redwood Plan 2, Lincoln, CA 95648</t>
+          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$512,990+</t>
+          <t>$670,990+</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2676,7 +3046,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -2686,17 +3061,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cedar Plan 1, Lincoln, CA 95648</t>
+          <t>River Plan 6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$492,900+</t>
+          <t>$616,990+</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2706,7 +3081,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -2716,27 +3096,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sutherland, Lincoln, CA 95648</t>
+          <t>Lake Plan 5, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$607,950+</t>
+          <t>$605,990+</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -2746,27 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Alan II, Lincoln, CA 95648</t>
+          <t>Redwood Plan 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$573,950+</t>
+          <t>$512,990+</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -2776,27 +3166,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>152 O St #6, Lincoln, CA 95648</t>
+          <t>Cedar Plan 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$160,000</t>
+          <t>$492,900+</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -2806,27 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>117 Cresta Ct, Lincoln, CA 95648</t>
+          <t>1168 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$1,598,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5,600</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -2836,27 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>310 Lexington Ct, Lincoln, CA 95648</t>
+          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$656,999</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -2866,27 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$806,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2,277</t>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -2896,27 +3306,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
+          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$1,324,900</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>3,433</t>
         </is>
       </c>
     </row>
@@ -2926,27 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
+          <t>152 O St #6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$594,999</t>
+          <t>$160,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2,237</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -2956,27 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1879 Echo Ln, Lincoln, CA 95648</t>
+          <t>117 Cresta Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$849,900</t>
+          <t>$1,598,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>5,600</t>
         </is>
       </c>
     </row>
@@ -2986,27 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1775 Stone House Ln, Lincoln, CA 95648</t>
+          <t>310 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$656,999</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1,740</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -3016,27 +3446,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
+          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2,277</t>
         </is>
       </c>
     </row>
@@ -3046,27 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1660 Bella Cir, Lincoln, CA 95648</t>
+          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$1,575,000</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1392 Grant St, Lincoln, CA 95648</t>
+          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$575,955</t>
+          <t>$594,999</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,237</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1258 Watson St, Lincoln, CA 95648</t>
+          <t>1879 Echo Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$626,124</t>
+          <t>$849,900</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3586,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
+          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$734,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -3166,27 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1921 Glenveagh Ln, Lincoln, CA 95648</t>
+          <t>1660 Bella Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,575,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2,108</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -3196,27 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1392 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$367,500</t>
+          <t>$575,955</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -3226,27 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>1258 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$626,124</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1846 Cliff Swallow Ln, Lincoln, CA 95648</t>
+          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2,264</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1,400</t>
         </is>
       </c>
     </row>
@@ -3286,27 +3761,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
+          <t>1921 Glenveagh Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$875,500</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1921-Glenveagh-Ln-95648/home/19600898</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2,612</t>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2,108</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$1,069,620</t>
+          <t>$367,500</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -3346,17 +3831,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>765 Valencia St, Lincoln, CA 95648</t>
+          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$1,149,800</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3366,7 +3851,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3,061</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2,134</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3866,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0 Moore Rd, Lincoln, CA 95648</t>
+          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$875,500</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,037,060</t>
+          <t>$1,069,620</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -3436,27 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>330 Lexington Ct, Lincoln, CA 95648</t>
+          <t>765 Valencia St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$684,174</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2,779</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>3,061</t>
         </is>
       </c>
     </row>
@@ -3466,27 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>993 Hadley Dr, Lincoln, CA 95648</t>
+          <t>0 Moore Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$950,000</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -3496,27 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>700 Karchner Rd, Lincoln, CA 95648</t>
+          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$1,599,000</t>
+          <t>$1,037,060</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>4,172</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -3526,27 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>330 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$983,720</t>
+          <t>$684,174</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2,779</t>
         </is>
       </c>
     </row>
@@ -3556,27 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>993 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$1,078,390</t>
+          <t>$950,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/993-Hadley-Dr-95648/home/180665890</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -3586,27 +4111,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>700 Karchner Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$1,007,690</t>
+          <t>$1,599,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>4,172</t>
         </is>
       </c>
     </row>
@@ -3616,25 +4146,30 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$1,001,450</t>
+          <t>$983,720</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>2,705</t>
         </is>
@@ -3646,27 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,078,390</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -3676,27 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>792 Riley Way, Lincoln, CA 95648</t>
+          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$779,900</t>
+          <t>$1,007,690</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2,157</t>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -3706,17 +4251,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1697 Storeyfield, Lincoln, CA 95648</t>
+          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$980,000</t>
+          <t>$1,001,450</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3726,7 +4271,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3,717</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -3736,27 +4286,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
+          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>5,232</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -3766,27 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
+          <t>792 Riley Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$779,900</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -3796,27 +4356,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>100 Barley Ct, Lincoln, CA 95648</t>
+          <t>1697 Storeyfield, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$797,500</t>
+          <t>$980,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>3,717</t>
         </is>
       </c>
     </row>
@@ -3826,27 +4391,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2400 3rd St, Lincoln, CA 95648</t>
+          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$633,000</t>
+          <t>$1,195,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2,460</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>5,232</t>
         </is>
       </c>
     </row>
@@ -3856,27 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
+          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>7,465</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -3886,27 +4461,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>420 7th St, Lincoln, CA 95648</t>
+          <t>100 Barley Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$699,900</t>
+          <t>$797,500</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -3916,27 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2400 3rd St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$865,000</t>
+          <t>$633,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3,489</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2,460</t>
         </is>
       </c>
     </row>
@@ -3946,27 +4531,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
+          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$2,999,999</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2,584</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>7,465</t>
         </is>
       </c>
     </row>
@@ -3976,27 +4566,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>420 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3,281</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1,928</t>
         </is>
       </c>
     </row>
@@ -4006,27 +4601,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
+          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>3,206</t>
         </is>
       </c>
     </row>
@@ -4036,27 +4636,32 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1519 7th St, Lincoln, CA 95648</t>
+          <t>103 Asti Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$465,000</t>
+          <t>$729,900</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>3,144</t>
         </is>
       </c>
     </row>
@@ -4066,17 +4671,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
+          <t>1129 Amelia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$762,990</t>
+          <t>$602,504</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4086,7 +4691,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -4096,27 +4706,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
+          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$480,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4126,27 +4741,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1078 Montague Ln, Lincoln, CA 95648</t>
+          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>3,281</t>
         </is>
       </c>
     </row>
@@ -4156,27 +4776,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
+          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$555,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -4186,17 +4811,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>205 Akashi Ct, Lincoln, CA 95648</t>
+          <t>1519 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$719,000</t>
+          <t>$465,000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4206,7 +4831,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1,201</t>
         </is>
       </c>
     </row>
@@ -4216,27 +4846,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
+          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$829,000</t>
+          <t>$750,000</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2,192</t>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2,846</t>
         </is>
       </c>
     </row>
@@ -4246,27 +4881,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$480,000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -4276,27 +4916,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>301 Tasso Pl, Lincoln, CA 95648</t>
+          <t>1078 Montague Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>3,236</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -4306,27 +4951,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>340 Lilac Ln, Lincoln, CA 95648</t>
+          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$539,950</t>
+          <t>$555,000</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1,700</t>
         </is>
       </c>
     </row>
@@ -4336,27 +4986,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>306 Amelia Ct, Lincoln, CA 95648</t>
+          <t>205 Akashi Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$744,373</t>
+          <t>$719,000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -4366,27 +5021,32 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
+          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$606,000</t>
+          <t>$829,000</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2,192</t>
         </is>
       </c>
     </row>
@@ -4396,27 +5056,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -4426,27 +5091,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
+          <t>301 Tasso Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>3,236</t>
         </is>
       </c>
     </row>
@@ -4456,17 +5126,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
+          <t>340 Lilac Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$628,000</t>
+          <t>$539,950</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4476,7 +5146,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4486,27 +5161,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
+          <t>306 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$769,000</t>
+          <t>$744,373</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -4516,27 +5196,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
+          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$565,000</t>
+          <t>$606,000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1,570</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -4546,27 +5231,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
+          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1,115</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -4576,27 +5266,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>696 Linley Ln, Lincoln, CA 95648</t>
+          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2,809</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -4606,27 +5301,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
+          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$628,000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2,889</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2,305</t>
         </is>
       </c>
     </row>
@@ -4636,17 +5336,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
+          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$769,000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4656,7 +5356,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -4666,27 +5371,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
+          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$660,000</t>
+          <t>$565,000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1,570</t>
         </is>
       </c>
     </row>
@@ -4696,27 +5406,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
+          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1,115</t>
         </is>
       </c>
     </row>
@@ -4726,27 +5441,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1197 Overland Ln, Lincoln, CA 95648</t>
+          <t>696 Linley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$1,190,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2,809</t>
         </is>
       </c>
     </row>
@@ -4756,27 +5476,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1416 Grant St, Lincoln, CA 95648</t>
+          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$626,016</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2,889</t>
         </is>
       </c>
     </row>
@@ -4786,17 +5511,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
+          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$2,890,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4806,7 +5531,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1,058</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1,795</t>
         </is>
       </c>
     </row>
@@ -4816,27 +5546,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$660,000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2,990</t>
         </is>
       </c>
     </row>
@@ -4846,27 +5581,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
+          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$539,000</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1,843</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -4876,27 +5616,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>584 - 588 L St, Lincoln, CA 95648</t>
+          <t>1197 Overland Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$1,190,000</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1197-Overland-Ln-95648/home/19600838</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1,122</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -4906,27 +5651,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
+          <t>1416 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$626,016</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -4936,27 +5686,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>401 Via Vistoso, Lincoln, CA 95648</t>
+          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$2,890,000</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1,058</t>
         </is>
       </c>
     </row>
@@ -4966,27 +5721,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
+          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -4996,27 +5756,32 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1173 Lodge Way, Lincoln, CA 95648</t>
+          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$678,000</t>
+          <t>$539,000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1,843</t>
         </is>
       </c>
     </row>
@@ -5026,27 +5791,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1697 Donner Ln, Lincoln, CA 95648</t>
+          <t>584 - 588 L St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$800,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1,122</t>
         </is>
       </c>
     </row>
@@ -5056,17 +5826,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1168 Lodge Way, Lincoln, CA 95648</t>
+          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5076,7 +5846,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -5086,27 +5861,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>401 Via Vistoso, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -5116,27 +5896,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$806,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -5146,27 +5931,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
+          <t>1173 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$1,324,900</t>
+          <t>$678,000</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3,433</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5176,27 +5966,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
+          <t>1697 Donner Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$875,000</t>
+          <t>$800,000</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -5206,27 +6001,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
+          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$540,000</t>
+          <t>$875,000</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1,621</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>4,235</t>
         </is>
       </c>
     </row>
@@ -5236,17 +6036,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>696 Geary Ln, Lincoln, CA 95648</t>
+          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$518,000</t>
+          <t>$609,900</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5256,7 +6056,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1,449</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1,777</t>
         </is>
       </c>
     </row>
@@ -5266,27 +6071,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
+          <t>304 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$489,900</t>
+          <t>$692,069</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1,155</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -5296,27 +6106,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
+          <t>400 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$639,000</t>
+          <t>$785,313</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -5326,27 +6141,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>601 Yerington Pl, Lincoln, CA 95648</t>
+          <t>401 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$707,569</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -5356,27 +6176,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
+          <t>303 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$732,873</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1,885</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -5386,27 +6211,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>700 Valley View Cir, Lincoln, CA 95648</t>
+          <t>Undisclosed Address, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$1,495,000</t>
+          <t>$595,000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3,696</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2,523</t>
         </is>
       </c>
     </row>
@@ -5416,27 +6246,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1440 Grant St, Lincoln, CA 95648</t>
+          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$571,295</t>
+          <t>$540,000</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1,621</t>
         </is>
       </c>
     </row>
@@ -5446,27 +6281,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
+          <t>696 Geary Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$869,000</t>
+          <t>$518,000</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2,349</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1,449</t>
         </is>
       </c>
     </row>
@@ -5476,27 +6316,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1642 Midford Ln, Lincoln, CA 95648</t>
+          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$489,900</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2,582</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1,155</t>
         </is>
       </c>
     </row>
@@ -5506,27 +6351,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>906 Heartwood, Lincoln, CA 95648</t>
+          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$639,000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2,597</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -5536,27 +6386,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
+          <t>601 Yerington Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$1,071,430</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -5566,27 +6421,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
+          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3,482</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1,885</t>
         </is>
       </c>
     </row>
@@ -5596,27 +6456,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
+          <t>700 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$545,000</t>
+          <t>$1,495,000</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1,491</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>3,696</t>
         </is>
       </c>
     </row>
@@ -5626,27 +6491,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
+          <t>1440 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$739,900</t>
+          <t>$571,295</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -5656,27 +6526,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
+          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$1,670,000</t>
+          <t>$869,000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>5,397</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2,349</t>
         </is>
       </c>
     </row>
@@ -5686,27 +6561,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>317 Arroyo Madrone Ct, Lincoln, CA 95648</t>
+          <t>1642 Midford Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$639,500</t>
+          <t>$625,000</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2,184</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2,582</t>
         </is>
       </c>
     </row>
@@ -5716,27 +6596,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>305 Amelia Ct, Lincoln, CA 95648</t>
+          <t>906 Heartwood, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$689,801</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2,597</t>
         </is>
       </c>
     </row>
@@ -5746,27 +6631,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
+          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$629,000</t>
+          <t>$1,071,430</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>2,653</t>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -5776,17 +6666,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>372 Daylily, Lincoln, CA 95648</t>
+          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$644,900</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5796,7 +6686,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1,837</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1,491</t>
         </is>
       </c>
     </row>
@@ -5806,17 +6701,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
+          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$715,000</t>
+          <t>$739,900</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5826,7 +6721,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1,967</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -5836,27 +6736,32 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>708 Yerington Ct, Lincoln, CA 95648</t>
+          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$1,099,800</t>
+          <t>$1,670,000</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2,745</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>5,397</t>
         </is>
       </c>
     </row>
@@ -5866,27 +6771,32 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+          <t>317 Arroyo Madrone Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$790,000</t>
+          <t>$639,500</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/317-Arroyo-Madrone-Ct-95648/home/19619509</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>3,928</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2,184</t>
         </is>
       </c>
     </row>
@@ -5896,27 +6806,32 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+          <t>305 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$539,500</t>
+          <t>$689,801</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -5926,27 +6841,32 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1229 Watson St, Lincoln, CA 95648</t>
+          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$671,327</t>
+          <t>$629,000</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2,653</t>
         </is>
       </c>
     </row>
@@ -5956,27 +6876,32 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+          <t>372 Daylily, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$677,705</t>
+          <t>$644,900</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>1,837</t>
         </is>
       </c>
     </row>
@@ -5986,27 +6911,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$688,600</t>
+          <t>$715,000</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1,967</t>
         </is>
       </c>
     </row>
@@ -6016,17 +6946,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>121 Trenton Ct, Lincoln, CA 95648</t>
+          <t>708 Yerington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$688,691</t>
+          <t>$1,099,800</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6036,7 +6966,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2,745</t>
         </is>
       </c>
     </row>
@@ -6046,27 +6981,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$685,142</t>
+          <t>$790,000</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>3,928</t>
         </is>
       </c>
     </row>
@@ -6076,27 +7016,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$716,566</t>
+          <t>$539,500</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6106,27 +7051,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$727,317</t>
+          <t>$677,705</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -6136,27 +7086,32 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
+          <t>100 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$619,900</t>
+          <t>$688,600</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2,067</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -6166,27 +7121,32 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
+          <t>121 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$688,691</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -6196,27 +7156,32 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>500 Pickering Ct, Lincoln, CA 95648</t>
+          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$685,142</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
+          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -6226,27 +7191,32 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
+          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$670,000</t>
+          <t>$716,566</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -6256,27 +7226,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
+          <t>101 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$727,317</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>3,206</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -6286,17 +7261,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>103 Asti Ct, Lincoln, CA 95648</t>
+          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$729,900</t>
+          <t>$619,900</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6306,7 +7281,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>3,144</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2,067</t>
         </is>
       </c>
     </row>
@@ -6316,27 +7296,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1129 Amelia Way, Lincoln, CA 95648</t>
+          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>$602,504</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6346,27 +7331,67 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
+          <t>500 Pickering Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2,301</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>$670,000</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1,529</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Lincoln_data.xlsx
+++ b/Zillow_API/Lincoln_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sutherland, Lincoln, CA 95648</t>
+          <t>Seth, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$607,950+</t>
+          <t>$639,950+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>3,030</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alan II, Lincoln, CA 95648</t>
+          <t>Andrea, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$573,950+</t>
+          <t>$622,950+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -541,22 +541,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sienna, Lincoln, CA 95648</t>
+          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$582,950+</t>
+          <t>$597,990+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,622</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seth, Lincoln, CA 95648</t>
+          <t>Plan 2050, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$639,950+</t>
+          <t>$552,990+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3,030</t>
+          <t>2,050</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andrea, Lincoln, CA 95648</t>
+          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$622,950+</t>
+          <t>$533,990+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$597,990+</t>
+          <t>$518,990+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2,622</t>
+          <t>2,020</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plan 2050, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$552,990+</t>
+          <t>$560,990+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,050</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$533,990+</t>
+          <t>$579,990+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$518,990+</t>
+          <t>$541,990+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>2,310</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Willow Plan 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$560,990+</t>
+          <t>$578,990+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 2145, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$579,990+</t>
+          <t>$602,504+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 2679, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$541,990+</t>
+          <t>$671,569+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2,310</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Willow Plan 3, Lincoln, CA 95648</t>
+          <t>Residence 3104, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$578,990+</t>
+          <t>$689,801+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Residence 2145, Lincoln, CA 95648</t>
+          <t>Residence 3312, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$602,504+</t>
+          <t>$727,421+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Residence 2679, Lincoln, CA 95648</t>
+          <t>Ascot Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$671,569+</t>
+          <t>$719,000+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
+          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -996,32 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Residence 3104, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$689,801+</t>
+          <t>$772,500+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Residence 3312, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$727,421+</t>
+          <t>$687,500+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,293</t>
         </is>
       </c>
     </row>
@@ -1066,22 +1066,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ascot Plan 7, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$719,000+</t>
+          <t>$712,500+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,627</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$772,500+</t>
+          <t>$722,500+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,827</t>
         </is>
       </c>
     </row>
@@ -1136,32 +1136,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Plan 4137, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$687,500+</t>
+          <t>$1,146,950+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>4,137</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Plan 2705, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$712,500+</t>
+          <t>$978,950+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2,627</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -1206,17 +1206,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Plan 3255, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$722,500+</t>
+          <t>$1,066,950+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2,827</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan 4137, Lincoln, CA 95648</t>
+          <t>Plan 2776, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,146,950+</t>
+          <t>$1,021,950+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4,137</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan 2705, Lincoln, CA 95648</t>
+          <t>Plan 2360, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$978,950+</t>
+          <t>$903,950+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,360</t>
         </is>
       </c>
     </row>
@@ -1311,32 +1311,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plan 3255, Lincoln, CA 95648</t>
+          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,066,950+</t>
+          <t>$508,990+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>1,608</t>
         </is>
       </c>
     </row>
@@ -1346,32 +1346,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Plan 2776, Lincoln, CA 95648</t>
+          <t>Affirm, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$1,021,950+</t>
+          <t>$635,999+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>1,622</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Plan 2360, Lincoln, CA 95648</t>
+          <t>Unite, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$903,950+</t>
+          <t>$612,999+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>1,448</t>
         </is>
       </c>
     </row>
@@ -1416,22 +1416,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
+          <t>Explore, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$508,990+</t>
+          <t>$674,999+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>1,868</t>
         </is>
       </c>
     </row>
@@ -1451,22 +1451,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Affirm, Lincoln, CA 95648</t>
+          <t>Venture, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$635,999+</t>
+          <t>$707,999+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1,622</t>
+          <t>2,048</t>
         </is>
       </c>
     </row>
@@ -1486,32 +1486,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Unite, Lincoln, CA 95648</t>
+          <t>Discover, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$612,999+</t>
+          <t>$739,999+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1,448</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -1521,32 +1521,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Explore, Lincoln, CA 95648</t>
+          <t>Proclaim, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$674,999+</t>
+          <t>$744,999+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1,868</t>
+          <t>2,141</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Venture, Lincoln, CA 95648</t>
+          <t>Vertex, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$707,999+</t>
+          <t>$920,499+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>2,546</t>
         </is>
       </c>
     </row>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Discover, Lincoln, CA 95648</t>
+          <t>Perspective, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$739,999+</t>
+          <t>$759,999+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>2,332</t>
         </is>
       </c>
     </row>
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proclaim, Lincoln, CA 95648</t>
+          <t>Pinnacle, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$744,999+</t>
+          <t>$968,499+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2,141</t>
+          <t>2,850</t>
         </is>
       </c>
     </row>
@@ -1661,32 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Vertex, Lincoln, CA 95648</t>
+          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$920,499+</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
+          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2,546</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Perspective, Lincoln, CA 95648</t>
+          <t>849 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$759,999+</t>
+          <t>$969,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
+          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pinnacle, Lincoln, CA 95648</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$968,499+</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -1766,32 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>$692,929</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
+          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$865,000</t>
+          <t>$974,900</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
+          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3,489</t>
+          <t>3,833</t>
         </is>
       </c>
     </row>
@@ -1836,32 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
+          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$2,999,999</t>
+          <t>$2,800,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
+          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2,584</t>
+          <t>150.00</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>849 Hadley Dr, Lincoln, CA 95648</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$969,000</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -1906,22 +1906,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -1941,32 +1941,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$692,929</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
+          <t>1308 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$974,900</t>
+          <t>$574,455</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
+          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3,833</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -2011,32 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>796 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$2,800,000</t>
+          <t>$889,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
+          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2046,32 +2046,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$570,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -2151,32 +2151,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1308 Grant St, Lincoln, CA 95648</t>
+          <t>1116 Fox Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$574,455</t>
+          <t>$374,900</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
+          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>796 Lodge Way, Lincoln, CA 95648</t>
+          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$889,000</t>
+          <t>$439,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
+          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>0.80</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
+          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$769,900</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
+          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$570,000</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
+          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$1,399,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
+          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3,371</t>
         </is>
       </c>
     </row>
@@ -2326,32 +2326,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1116 Fox Ln, Lincoln, CA 95648</t>
+          <t>301 Felton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$374,900</t>
+          <t>$779,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
+          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
+          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$439,000</t>
+          <t>$3,850,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
+          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>2,069</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>429 Fuente Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
+          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -2431,17 +2431,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>147 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
+          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>619 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$1,399,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
+          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3,371</t>
+          <t>21.40</t>
         </is>
       </c>
     </row>
@@ -2501,17 +2501,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>100 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$1,450,000</t>
+          <t>$619,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Serene-Estates-Ln-95648/home/19574359</t>
+          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4,450</t>
+          <t>2,099</t>
         </is>
       </c>
     </row>
@@ -2536,32 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>301 Felton Ct, Lincoln, CA 95648</t>
+          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$779,000</t>
+          <t>$749,950</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
+          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,830</t>
         </is>
       </c>
     </row>
@@ -2571,32 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
+          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$3,850,000</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
+          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2,069</t>
+          <t>359.40</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>429 Fuente Pl, Lincoln, CA 95648</t>
+          <t>Meadow Plan 13, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$870,990+</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>147 W Wise Rd, Lincoln, CA 95648</t>
+          <t>Harbor Plan 12, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$852,990+</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2,823</t>
         </is>
       </c>
     </row>
@@ -2676,32 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>619 Valley View Cir, Lincoln, CA 95648</t>
+          <t>Glacier Plan 11, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$822,990+</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>2,655</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
+          <t>Basin Plan 10, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$619,000</t>
+          <t>$802,990+</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2746,17 +2746,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>Quail Plan 9, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$749,950</t>
+          <t>$702,990+</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2,830</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
+          <t>Mallard Plan 8, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$690,990+</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Meadow Plan 13, Lincoln, CA 95648</t>
+          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$870,990+</t>
+          <t>$670,990+</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -2851,17 +2851,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Harbor Plan 12, Lincoln, CA 95648</t>
+          <t>River Plan 6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$852,990+</t>
+          <t>$616,990+</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Glacier Plan 11, Lincoln, CA 95648</t>
+          <t>Lake Plan 5, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$822,990+</t>
+          <t>$605,990+</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2906,12 +2906,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2,655</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Basin Plan 10, Lincoln, CA 95648</t>
+          <t>Redwood Plan 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$802,990+</t>
+          <t>$512,990+</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Quail Plan 9, Lincoln, CA 95648</t>
+          <t>Cedar Plan 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$702,990+</t>
+          <t>$492,900+</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -2991,32 +2991,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mallard Plan 8, Lincoln, CA 95648</t>
+          <t>Sutherland, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$690,990+</t>
+          <t>$607,950+</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -3026,22 +3026,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
+          <t>Alan II, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$670,990+</t>
+          <t>$573,950+</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>1,990</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>River Plan 6, Lincoln, CA 95648</t>
+          <t>Sienna, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$616,990+</t>
+          <t>$582,950+</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lake Plan 5, Lincoln, CA 95648</t>
+          <t>1168 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$605,990+</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
+          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3131,17 +3131,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Redwood Plan 2, Lincoln, CA 95648</t>
+          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$512,990+</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
+          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cedar Plan 1, Lincoln, CA 95648</t>
+          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$492,900+</t>
+          <t>$806,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
+          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1168 Lodge Way, Lincoln, CA 95648</t>
+          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$1,324,900</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
+          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>3,433</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>152 O St #6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$160,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
+          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -3271,32 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>117 Cresta Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$806,000</t>
+          <t>$1,598,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
+          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>5,600</t>
         </is>
       </c>
     </row>
@@ -3306,22 +3306,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
+          <t>310 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$1,324,900</t>
+          <t>$656,999</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
+          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3,433</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>152 O St #6, Lincoln, CA 95648</t>
+          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$160,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
+          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>2,277</t>
         </is>
       </c>
     </row>
@@ -3376,32 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>117 Cresta Ct, Lincoln, CA 95648</t>
+          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$1,598,000</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
+          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>5,600</t>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>310 Lexington Ct, Lincoln, CA 95648</t>
+          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$656,999</t>
+          <t>$594,999</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
+          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,237</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>1879 Echo Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$849,900</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
+          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2,277</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
+          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$734,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
+          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
+          <t>1660 Bella Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$594,999</t>
+          <t>$1,575,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
+          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2,237</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1879 Echo Ln, Lincoln, CA 95648</t>
+          <t>1392 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$849,900</t>
+          <t>$575,955</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
+          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -3586,17 +3586,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
+          <t>1258 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$626,124</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
+          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1660 Bella Cir, Lincoln, CA 95648</t>
+          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$1,575,000</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
+          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>1,400</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1392 Grant St, Lincoln, CA 95648</t>
+          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$575,955</t>
+          <t>$367,500</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
+          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1258 Watson St, Lincoln, CA 95648</t>
+          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$626,124</t>
+          <t>$1,149,800</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
+          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,134</t>
         </is>
       </c>
     </row>
@@ -3726,32 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
+          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$875,500</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
+          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1921 Glenveagh Ln, Lincoln, CA 95648</t>
+          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,069,620</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1921-Glenveagh-Ln-95648/home/19600898</t>
+          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2,108</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>765 Valencia St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$367,500</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
+          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>3,061</t>
         </is>
       </c>
     </row>
@@ -3831,32 +3831,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>0 Moore Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
+          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
+          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$875,500</t>
+          <t>$1,037,060</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
+          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>330 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,069,620</t>
+          <t>$684,174</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
+          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,779</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>765 Valencia St, Lincoln, CA 95648</t>
+          <t>700 Karchner Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$1,599,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
+          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3,061</t>
+          <t>4,172</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0 Moore Rd, Lincoln, CA 95648</t>
+          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$983,720</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
+          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4006,32 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$1,037,060</t>
+          <t>$1,078,390</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
+          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>330 Lexington Ct, Lincoln, CA 95648</t>
+          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$684,174</t>
+          <t>$1,007,690</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
+          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2,779</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4076,22 +4076,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>993 Hadley Dr, Lincoln, CA 95648</t>
+          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$950,000</t>
+          <t>$1,001,450</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/993-Hadley-Dr-95648/home/180665890</t>
+          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>700 Karchner Rd, Lincoln, CA 95648</t>
+          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$1,599,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
+          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4,172</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>792 Riley Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$983,720</t>
+          <t>$779,900</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
+          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -4181,32 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>1697 Storeyfield, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$1,078,390</t>
+          <t>$980,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
+          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>3,717</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$1,007,690</t>
+          <t>$1,195,000</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
+          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>5,232</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$1,001,450</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
+          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4286,17 +4286,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>100 Barley Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$797,500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
+          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -4321,32 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>792 Riley Way, Lincoln, CA 95648</t>
+          <t>2400 3rd St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$779,900</t>
+          <t>$633,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
+          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>2,460</t>
         </is>
       </c>
     </row>
@@ -4356,22 +4356,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1697 Storeyfield, Lincoln, CA 95648</t>
+          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$980,000</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
+          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3,717</t>
+          <t>7,465</t>
         </is>
       </c>
     </row>
@@ -4391,32 +4391,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
+          <t>420 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
+          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>5,232</t>
+          <t>1,928</t>
         </is>
       </c>
     </row>
@@ -4426,32 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
+          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$865,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
+          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>3,489</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>100 Barley Ct, Lincoln, CA 95648</t>
+          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$797,500</t>
+          <t>$2,999,999</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
+          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4481,12 +4481,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,584</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2400 3rd St, Lincoln, CA 95648</t>
+          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$633,000</t>
+          <t>$670,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
+          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2,460</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -4531,32 +4531,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
+          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
+          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>7,465</t>
+          <t>3,206</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>420 7th St, Lincoln, CA 95648</t>
+          <t>103 Asti Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$699,900</t>
+          <t>$729,900</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
+          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>3,144</t>
         </is>
       </c>
     </row>
@@ -4601,32 +4601,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
+          <t>1129 Amelia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$602,504</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
+          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3,206</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -4636,32 +4636,32 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>103 Asti Ct, Lincoln, CA 95648</t>
+          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$729,900</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
+          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3,144</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4671,17 +4671,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1129 Amelia Way, Lincoln, CA 95648</t>
+          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$602,504</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
+          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>3,281</t>
         </is>
       </c>
     </row>
@@ -4706,32 +4706,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
+          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
+          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -4741,32 +4741,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>1519 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$465,000</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
+          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3,281</t>
+          <t>1,201</t>
         </is>
       </c>
     </row>
@@ -4776,32 +4776,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
+          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$480,000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
+          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1519 7th St, Lincoln, CA 95648</t>
+          <t>1078 Montague Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$465,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
+          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -4846,32 +4846,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
+          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$750,000</t>
+          <t>$555,000</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
+          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>1,700</t>
         </is>
       </c>
     </row>
@@ -4881,32 +4881,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
+          <t>205 Akashi Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$480,000</t>
+          <t>$719,000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
+          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1078 Montague Ln, Lincoln, CA 95648</t>
+          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$829,000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
+          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,192</t>
         </is>
       </c>
     </row>
@@ -4951,22 +4951,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$555,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -4986,32 +4986,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>205 Akashi Ct, Lincoln, CA 95648</t>
+          <t>301 Tasso Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$719,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
+          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>3,236</t>
         </is>
       </c>
     </row>
@@ -5021,32 +5021,32 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
+          <t>340 Lilac Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$829,000</t>
+          <t>$539,950</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
+          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2,192</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5056,32 +5056,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>306 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$744,373</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -5091,32 +5091,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>301 Tasso Pl, Lincoln, CA 95648</t>
+          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$606,000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
+          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>3,236</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5126,32 +5126,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>340 Lilac Ln, Lincoln, CA 95648</t>
+          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$539,950</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
+          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -5161,17 +5161,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>306 Amelia Ct, Lincoln, CA 95648</t>
+          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$744,373</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
+          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -5196,22 +5196,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
+          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$606,000</t>
+          <t>$628,000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
+          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,305</t>
         </is>
       </c>
     </row>
@@ -5231,32 +5231,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
+          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$769,000</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
+          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5266,32 +5266,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
+          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$565,000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
+          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>1,570</t>
         </is>
       </c>
     </row>
@@ -5301,22 +5301,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
+          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$628,000</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
+          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>1,115</t>
         </is>
       </c>
     </row>
@@ -5336,32 +5336,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
+          <t>696 Linley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$769,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
+          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>2,809</t>
         </is>
       </c>
     </row>
@@ -5371,32 +5371,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
+          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$565,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
+          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1,570</t>
+          <t>2,889</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
+          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
+          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1,115</t>
+          <t>1,795</t>
         </is>
       </c>
     </row>
@@ -5441,32 +5441,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>696 Linley Ln, Lincoln, CA 95648</t>
+          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$660,000</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
+          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2,809</t>
+          <t>2,990</t>
         </is>
       </c>
     </row>
@@ -5476,32 +5476,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
+          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
+          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2,889</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5511,32 +5511,32 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
+          <t>1197 Overland Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,190,000</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
+          <t>/CA/Lincoln/1197-Overland-Ln-95648/home/19600838</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
+          <t>1416 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$660,000</t>
+          <t>$626,016</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
+          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5566,12 +5566,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -5581,22 +5581,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
+          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$2,890,000</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
+          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>1,058</t>
         </is>
       </c>
     </row>
@@ -5616,32 +5616,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1197 Overland Ln, Lincoln, CA 95648</t>
+          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$1,190,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1197-Overland-Ln-95648/home/19600838</t>
+          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -5651,32 +5651,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1416 Grant St, Lincoln, CA 95648</t>
+          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$626,016</t>
+          <t>$539,000</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
+          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>1,843</t>
         </is>
       </c>
     </row>
@@ -5686,17 +5686,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
+          <t>584 - 588 L St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$2,890,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
+          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1,058</t>
+          <t>1,122</t>
         </is>
       </c>
     </row>
@@ -5721,32 +5721,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
+          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -5756,32 +5756,32 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
+          <t>401 Via Vistoso, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$539,000</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
+          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1,843</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -5791,32 +5791,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>584 - 588 L St, Lincoln, CA 95648</t>
+          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
+          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1,122</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -5826,17 +5826,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
+          <t>1173 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$678,000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
+          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5861,32 +5861,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>401 Via Vistoso, Lincoln, CA 95648</t>
+          <t>1697 Donner Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$800,000</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
+          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -5896,32 +5896,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
+          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$875,000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
+          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>4,235</t>
         </is>
       </c>
     </row>
@@ -5931,17 +5931,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1173 Lodge Way, Lincoln, CA 95648</t>
+          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$678,000</t>
+          <t>$526,500</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
+          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -5966,17 +5966,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1697 Donner Ln, Lincoln, CA 95648</t>
+          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$800,000</t>
+          <t>$609,900</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
+          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5986,12 +5986,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>1,777</t>
         </is>
       </c>
     </row>
@@ -6001,17 +6001,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
+          <t>304 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$875,000</t>
+          <t>$692,069</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
+          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6021,12 +6021,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6036,32 +6036,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
+          <t>400 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$609,900</t>
+          <t>$785,313</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
+          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>1,777</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6071,17 +6071,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>304 Amelia Ct, Lincoln, CA 95648</t>
+          <t>401 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$692,069</t>
+          <t>$707,569</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
+          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6106,17 +6106,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>400 Sydney Ter, Lincoln, CA 95648</t>
+          <t>303 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$785,313</t>
+          <t>$732,873</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
+          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6141,17 +6141,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>401 Sydney Ter, Lincoln, CA 95648</t>
+          <t>Undisclosed Address, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$707,569</t>
+          <t>$595,000</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
+          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,523</t>
         </is>
       </c>
     </row>
@@ -6176,17 +6176,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>303 Amelia Ct, Lincoln, CA 95648</t>
+          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$732,873</t>
+          <t>$540,000</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
+          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>1,621</t>
         </is>
       </c>
     </row>
@@ -6211,32 +6211,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Undisclosed Address, Lincoln, CA 95648</t>
+          <t>696 Geary Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$595,000</t>
+          <t>$518,000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
+          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2,523</t>
+          <t>1,449</t>
         </is>
       </c>
     </row>
@@ -6246,22 +6246,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
+          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$540,000</t>
+          <t>$489,900</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
+          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1,621</t>
+          <t>1,155</t>
         </is>
       </c>
     </row>
@@ -6281,17 +6281,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>696 Geary Ln, Lincoln, CA 95648</t>
+          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$518,000</t>
+          <t>$639,000</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
+          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1,449</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -6316,17 +6316,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
+          <t>601 Yerington Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$489,900</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
+          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1,155</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6351,17 +6351,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
+          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$639,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
+          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6371,12 +6371,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>1,885</t>
         </is>
       </c>
     </row>
@@ -6386,32 +6386,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>601 Yerington Pl, Lincoln, CA 95648</t>
+          <t>700 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$1,495,000</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
+          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>3,696</t>
         </is>
       </c>
     </row>
@@ -6421,32 +6421,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
+          <t>1440 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$571,295</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
+          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1,885</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -6456,32 +6456,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>700 Valley View Cir, Lincoln, CA 95648</t>
+          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$1,495,000</t>
+          <t>$869,000</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
+          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>3,696</t>
+          <t>2,349</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1440 Grant St, Lincoln, CA 95648</t>
+          <t>1642 Midford Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$571,295</t>
+          <t>$625,000</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
+          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2,582</t>
         </is>
       </c>
     </row>
@@ -6526,22 +6526,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
+          <t>906 Heartwood, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$869,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
+          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2,349</t>
+          <t>2,597</t>
         </is>
       </c>
     </row>
@@ -6561,17 +6561,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1642 Midford Ln, Lincoln, CA 95648</t>
+          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
+          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2,582</t>
+          <t>3,482</t>
         </is>
       </c>
     </row>
@@ -6596,32 +6596,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>906 Heartwood, Lincoln, CA 95648</t>
+          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$1,071,430</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
+          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2,597</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -6631,32 +6631,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
+          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$1,071,430</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
+          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>1,491</t>
         </is>
       </c>
     </row>
@@ -6666,17 +6666,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
+          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$545,000</t>
+          <t>$739,900</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
+          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1,491</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -6701,32 +6701,32 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
+          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$739,900</t>
+          <t>$1,670,000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
+          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>5,397</t>
         </is>
       </c>
     </row>
@@ -6736,17 +6736,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
+          <t>305 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$1,670,000</t>
+          <t>$689,801</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
+          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6756,12 +6756,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5,397</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -6771,17 +6771,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>317 Arroyo Madrone Ct, Lincoln, CA 95648</t>
+          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$639,500</t>
+          <t>$629,000</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/317-Arroyo-Madrone-Ct-95648/home/19619509</t>
+          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2,184</t>
+          <t>2,653</t>
         </is>
       </c>
     </row>
@@ -6806,32 +6806,32 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>305 Amelia Ct, Lincoln, CA 95648</t>
+          <t>372 Daylily, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$689,801</t>
+          <t>$644,900</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
+          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>1,837</t>
         </is>
       </c>
     </row>
@@ -6841,32 +6841,32 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
+          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$629,000</t>
+          <t>$715,000</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
+          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2,653</t>
+          <t>1,967</t>
         </is>
       </c>
     </row>
@@ -6876,32 +6876,32 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>372 Daylily, Lincoln, CA 95648</t>
+          <t>708 Yerington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$644,900</t>
+          <t>$1,099,800</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
+          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>1,837</t>
+          <t>2,745</t>
         </is>
       </c>
     </row>
@@ -6911,32 +6911,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
+          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$715,000</t>
+          <t>$790,000</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
+          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>1,967</t>
+          <t>3,928</t>
         </is>
       </c>
     </row>
@@ -6946,32 +6946,32 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>708 Yerington Ct, Lincoln, CA 95648</t>
+          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$1,099,800</t>
+          <t>$539,500</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
+          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2,745</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6981,17 +6981,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$790,000</t>
+          <t>$677,705</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
+          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7001,12 +7001,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3,928</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -7016,32 +7016,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+          <t>100 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$539,500</t>
+          <t>$688,600</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -7051,17 +7051,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+          <t>121 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$677,705</t>
+          <t>$688,691</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -7086,17 +7086,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$688,600</t>
+          <t>$685,142</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
+          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7121,17 +7121,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>121 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$688,691</t>
+          <t>$716,566</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
+          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -7156,17 +7156,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
+          <t>101 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$685,142</t>
+          <t>$727,317</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
+          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -7191,32 +7191,32 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$716,566</t>
+          <t>$619,900</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
+          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,067</t>
         </is>
       </c>
     </row>
@@ -7226,32 +7226,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$727,317</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
+          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -7261,22 +7261,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
+          <t>500 Pickering Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$619,900</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
+          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7286,112 +7286,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2,067</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>$525,000</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>1,322</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>500 Pickering Ct, Lincoln, CA 95648</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>$635,000</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
           <t>2,301</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>$670,000</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>1,529</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Lincoln_data.xlsx
+++ b/Zillow_API/Lincoln_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seth, Lincoln, CA 95648</t>
+          <t>Alan II, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$639,950+</t>
+          <t>$573,950+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3,030</t>
+          <t>1,990</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andrea, Lincoln, CA 95648</t>
+          <t>Sienna, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$622,950+</t>
+          <t>$582,950+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
+          <t>Seth, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$597,990+</t>
+          <t>$639,950+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2,622</t>
+          <t>3,030</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plan 2050, Lincoln, CA 95648</t>
+          <t>Andrea, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$552,990+</t>
+          <t>$622,950+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2,050</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$533,990+</t>
+          <t>$597,990+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>2,622</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Plan 2050, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$518,990+</t>
+          <t>$552,990+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>2,050</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$560,990+</t>
+          <t>$533,990+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$579,990+</t>
+          <t>$518,990+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,020</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$541,990+</t>
+          <t>$560,990+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,310</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Willow Plan 3, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$578,990+</t>
+          <t>$579,990+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Residence 2145, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$602,504+</t>
+          <t>$541,990+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2,310</t>
         </is>
       </c>
     </row>
@@ -856,32 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Residence 2679, Lincoln, CA 95648</t>
+          <t>Willow Plan 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$671,569+</t>
+          <t>$578,990+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Residence 3104, Lincoln, CA 95648</t>
+          <t>Residence 2145, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$689,801+</t>
+          <t>$602,504+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Residence 3312, Lincoln, CA 95648</t>
+          <t>Residence 2679, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$727,421+</t>
+          <t>$671,569+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ascot Plan 7, Lincoln, CA 95648</t>
+          <t>Residence 3104, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$719,000+</t>
+          <t>$689,801+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 3312, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$772,500+</t>
+          <t>$727,421+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Ascot Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$687,500+</t>
+          <t>$719,000+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
+          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$712,500+</t>
+          <t>$772,500+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,627</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$722,500+</t>
+          <t>$687,500+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2,827</t>
+          <t>2,293</t>
         </is>
       </c>
     </row>
@@ -1136,32 +1136,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Plan 4137, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$1,146,950+</t>
+          <t>$712,500+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4,137</t>
+          <t>2,627</t>
         </is>
       </c>
     </row>
@@ -1171,22 +1171,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Plan 2705, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$978,950+</t>
+          <t>$722,500+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,827</t>
         </is>
       </c>
     </row>
@@ -1206,22 +1206,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Plan 3255, Lincoln, CA 95648</t>
+          <t>Plan 4137, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$1,066,950+</t>
+          <t>$1,146,950+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>4,137</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan 2776, Lincoln, CA 95648</t>
+          <t>Plan 2705, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,021,950+</t>
+          <t>$978,950+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan 2360, Lincoln, CA 95648</t>
+          <t>Plan 3255, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$903,950+</t>
+          <t>$1,066,950+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -1311,17 +1311,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2776, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$508,990+</t>
+          <t>$1,021,950+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -1346,32 +1346,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Affirm, Lincoln, CA 95648</t>
+          <t>Plan 2360, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$635,999+</t>
+          <t>$903,950+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,622</t>
+          <t>2,360</t>
         </is>
       </c>
     </row>
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unite, Lincoln, CA 95648</t>
+          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$612,999+</t>
+          <t>$508,990+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,448</t>
+          <t>1,608</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Explore, Lincoln, CA 95648</t>
+          <t>Affirm, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$674,999+</t>
+          <t>$635,999+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1,868</t>
+          <t>1,622</t>
         </is>
       </c>
     </row>
@@ -1451,22 +1451,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Venture, Lincoln, CA 95648</t>
+          <t>Unite, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$707,999+</t>
+          <t>$612,999+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>1,448</t>
         </is>
       </c>
     </row>
@@ -1486,32 +1486,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Discover, Lincoln, CA 95648</t>
+          <t>Explore, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$739,999+</t>
+          <t>$674,999+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>1,868</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proclaim, Lincoln, CA 95648</t>
+          <t>Venture, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$744,999+</t>
+          <t>$707,999+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2,141</t>
+          <t>2,048</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vertex, Lincoln, CA 95648</t>
+          <t>Discover, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$920,499+</t>
+          <t>$739,999+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2,546</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Perspective, Lincoln, CA 95648</t>
+          <t>Proclaim, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$759,999+</t>
+          <t>$744,999+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>2,141</t>
         </is>
       </c>
     </row>
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pinnacle, Lincoln, CA 95648</t>
+          <t>Vertex, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$968,499+</t>
+          <t>$920,499+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>2,546</t>
         </is>
       </c>
     </row>
@@ -1661,32 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>Perspective, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>$759,999+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,332</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>849 Hadley Dr, Lincoln, CA 95648</t>
+          <t>Pinnacle, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$969,000</t>
+          <t>$968,499+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,850</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1766,32 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
+          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$692,929</t>
+          <t>$865,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
+          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>3,489</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
+          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$974,900</t>
+          <t>$2,999,999</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
+          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3,833</t>
+          <t>2,584</t>
         </is>
       </c>
     </row>
@@ -1836,32 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>849 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$2,800,000</t>
+          <t>$969,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
+          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -1906,22 +1906,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$692,929</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$974,900</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>3,833</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1308 Grant St, Lincoln, CA 95648</t>
+          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$574,455</t>
+          <t>$2,800,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
+          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>150.00</t>
         </is>
       </c>
     </row>
@@ -2011,32 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>796 Lodge Way, Lincoln, CA 95648</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$889,000</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -2046,22 +2046,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$570,000</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>1308 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$574,455</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
+          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -2151,32 +2151,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1116 Fox Ln, Lincoln, CA 95648</t>
+          <t>796 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$374,900</t>
+          <t>$888,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
+          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
+          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$439,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
+          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$570,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
+          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
+          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>1116 Fox Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,399,000</t>
+          <t>$374,900</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
+          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3,371</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -2326,32 +2326,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>301 Felton Ct, Lincoln, CA 95648</t>
+          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$779,000</t>
+          <t>$439,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
+          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>0.80</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
+          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$3,850,000</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
+          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2,069</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>429 Fuente Pl, Lincoln, CA 95648</t>
+          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
+          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2431,32 +2431,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>147 W Wise Rd, Lincoln, CA 95648</t>
+          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$1,399,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
+          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3,371</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>619 Valley View Cir, Lincoln, CA 95648</t>
+          <t>301 Felton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$779,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
+          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
+          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$619,000</t>
+          <t>$3,850,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
+          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>2,069</t>
         </is>
       </c>
     </row>
@@ -2536,32 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>429 Fuente Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$749,950</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
+          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2,830</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -2571,17 +2571,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
+          <t>147 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
+          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Meadow Plan 13, Lincoln, CA 95648</t>
+          <t>619 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$870,990+</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
+          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>21.40</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Harbor Plan 12, Lincoln, CA 95648</t>
+          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$852,990+</t>
+          <t>$619,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
+          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>2,099</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Glacier Plan 11, Lincoln, CA 95648</t>
+          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$822,990+</t>
+          <t>$749,950</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
+          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2,655</t>
+          <t>2,830</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Basin Plan 10, Lincoln, CA 95648</t>
+          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$802,990+</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
+          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>359.40</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Quail Plan 9, Lincoln, CA 95648</t>
+          <t>Meadow Plan 13, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$702,990+</t>
+          <t>$870,990+</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -2781,17 +2781,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mallard Plan 8, Lincoln, CA 95648</t>
+          <t>Harbor Plan 12, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$690,990+</t>
+          <t>$852,990+</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2,823</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
+          <t>Glacier Plan 11, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$670,990+</t>
+          <t>$822,990+</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>2,655</t>
         </is>
       </c>
     </row>
@@ -2851,17 +2851,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>River Plan 6, Lincoln, CA 95648</t>
+          <t>Basin Plan 10, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$616,990+</t>
+          <t>$802,990+</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lake Plan 5, Lincoln, CA 95648</t>
+          <t>Quail Plan 9, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$605,990+</t>
+          <t>$702,990+</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Redwood Plan 2, Lincoln, CA 95648</t>
+          <t>Mallard Plan 8, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$512,990+</t>
+          <t>$690,990+</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cedar Plan 1, Lincoln, CA 95648</t>
+          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$492,900+</t>
+          <t>$670,990+</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -2991,32 +2991,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sutherland, Lincoln, CA 95648</t>
+          <t>River Plan 6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$607,950+</t>
+          <t>$616,990+</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Alan II, Lincoln, CA 95648</t>
+          <t>Lake Plan 5, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$573,950+</t>
+          <t>$605,990+</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sienna, Lincoln, CA 95648</t>
+          <t>Redwood Plan 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$582,950+</t>
+          <t>$512,990+</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1168 Lodge Way, Lincoln, CA 95648</t>
+          <t>Cedar Plan 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$492,900+</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -3131,22 +3131,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>Sutherland, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$607,950+</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>1173 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$806,000</t>
+          <t>$677,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
+          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
+          <t>1697 Donner Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$1,324,900</t>
+          <t>$800,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
+          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3,433</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>152 O St #6, Lincoln, CA 95648</t>
+          <t>1168 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$160,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
+          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -3271,32 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>117 Cresta Ct, Lincoln, CA 95648</t>
+          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$1,598,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
+          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5,600</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -3306,32 +3306,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>310 Lexington Ct, Lincoln, CA 95648</t>
+          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$656,999</t>
+          <t>$806,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
+          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$1,299,900</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
+          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2,277</t>
+          <t>3,433</t>
         </is>
       </c>
     </row>
@@ -3376,17 +3376,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
+          <t>152 O St #6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$160,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
+          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
+          <t>117 Cresta Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$594,999</t>
+          <t>$1,598,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
+          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2,237</t>
+          <t>5,600</t>
         </is>
       </c>
     </row>
@@ -3446,32 +3446,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1879 Echo Ln, Lincoln, CA 95648</t>
+          <t>310 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$849,900</t>
+          <t>$656,999</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
+          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
+          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
+          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>2,277</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1660 Bella Cir, Lincoln, CA 95648</t>
+          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$1,575,000</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
+          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -3551,17 +3551,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1392 Grant St, Lincoln, CA 95648</t>
+          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$575,955</t>
+          <t>$594,999</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
+          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>2,237</t>
         </is>
       </c>
     </row>
@@ -3586,32 +3586,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1258 Watson St, Lincoln, CA 95648</t>
+          <t>1879 Echo Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$626,124</t>
+          <t>$849,900</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
+          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
+          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$734,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
+          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1660 Bella Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$367,500</t>
+          <t>$1,575,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
+          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>1392 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$575,955</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
+          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -3726,32 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
+          <t>1258 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$875,500</t>
+          <t>$626,124</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
+          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -3761,32 +3761,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$1,069,620</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
+          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>1,400</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>765 Valencia St, Lincoln, CA 95648</t>
+          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$367,500</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
+          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3,061</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -3831,32 +3831,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0 Moore Rd, Lincoln, CA 95648</t>
+          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$1,149,800</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
+          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>2,134</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$1,037,060</t>
+          <t>$875,500</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
+          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>330 Lexington Ct, Lincoln, CA 95648</t>
+          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$684,174</t>
+          <t>$1,069,620</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
+          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2,779</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>700 Karchner Rd, Lincoln, CA 95648</t>
+          <t>765 Valencia St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$1,599,000</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
+          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4,172</t>
+          <t>3,061</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>0 Moore Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$983,720</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
+          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -4006,32 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$1,078,390</t>
+          <t>$1,037,060</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
+          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>330 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$1,007,690</t>
+          <t>$684,174</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
+          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,779</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>700 Karchner Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$1,001,450</t>
+          <t>$1,599,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
+          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>4,172</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$983,720</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
+          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4146,32 +4146,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>792 Riley Way, Lincoln, CA 95648</t>
+          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$779,900</t>
+          <t>$1,078,390</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
+          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -4181,32 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1697 Storeyfield, Lincoln, CA 95648</t>
+          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$980,000</t>
+          <t>$1,007,690</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
+          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3,717</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
+          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$1,001,450</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
+          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5,232</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
+          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
+          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -4286,32 +4286,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>100 Barley Ct, Lincoln, CA 95648</t>
+          <t>792 Riley Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$797,500</t>
+          <t>$779,900</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
+          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -4321,22 +4321,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2400 3rd St, Lincoln, CA 95648</t>
+          <t>1697 Storeyfield, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$633,000</t>
+          <t>$980,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
+          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2,460</t>
+          <t>3,717</t>
         </is>
       </c>
     </row>
@@ -4356,22 +4356,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
+          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$1,195,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
+          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>7,465</t>
+          <t>5,232</t>
         </is>
       </c>
     </row>
@@ -4391,22 +4391,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>420 7th St, Lincoln, CA 95648</t>
+          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$699,900</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
+          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4426,22 +4426,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>100 Barley Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$865,000</t>
+          <t>$797,500</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
+          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3,489</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
+          <t>2400 3rd St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$2,999,999</t>
+          <t>$633,000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
+          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2,584</t>
+          <t>2,460</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
+          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$670,000</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
+          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>7,465</t>
         </is>
       </c>
     </row>
@@ -4531,32 +4531,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
+          <t>420 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
+          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3,206</t>
+          <t>1,928</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>103 Asti Ct, Lincoln, CA 95648</t>
+          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$729,900</t>
+          <t>$619,900</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
+          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>3,144</t>
+          <t>2,067</t>
         </is>
       </c>
     </row>
@@ -4601,32 +4601,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1129 Amelia Way, Lincoln, CA 95648</t>
+          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$602,504</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
+          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
+          <t>500 Pickering Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
+          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -4671,32 +4671,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$670,000</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
+          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3,281</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -4706,32 +4706,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
+          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
+          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>3,206</t>
         </is>
       </c>
     </row>
@@ -4741,32 +4741,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1519 7th St, Lincoln, CA 95648</t>
+          <t>103 Asti Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$465,000</t>
+          <t>$729,900</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
+          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>3,144</t>
         </is>
       </c>
     </row>
@@ -4776,32 +4776,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
+          <t>1129 Amelia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$480,000</t>
+          <t>$602,504</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
+          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1078 Montague Ln, Lincoln, CA 95648</t>
+          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
+          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4846,17 +4846,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
+          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$555,000</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
+          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>3,281</t>
         </is>
       </c>
     </row>
@@ -4881,22 +4881,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>205 Akashi Ct, Lincoln, CA 95648</t>
+          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$719,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
+          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
+          <t>1519 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$829,000</t>
+          <t>$465,000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
+          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2,192</t>
+          <t>1,201</t>
         </is>
       </c>
     </row>
@@ -4951,32 +4951,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$480,000</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -4986,32 +4986,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>301 Tasso Pl, Lincoln, CA 95648</t>
+          <t>1078 Montague Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
+          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3,236</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -5021,22 +5021,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>340 Lilac Ln, Lincoln, CA 95648</t>
+          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$539,950</t>
+          <t>$555,000</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
+          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>1,700</t>
         </is>
       </c>
     </row>
@@ -5056,32 +5056,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>306 Amelia Ct, Lincoln, CA 95648</t>
+          <t>205 Akashi Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$744,373</t>
+          <t>$719,000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
+          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -5091,32 +5091,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
+          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$606,000</t>
+          <t>$829,000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
+          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,192</t>
         </is>
       </c>
     </row>
@@ -5126,32 +5126,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -5161,32 +5161,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
+          <t>301 Tasso Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
+          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>3,236</t>
         </is>
       </c>
     </row>
@@ -5196,22 +5196,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
+          <t>340 Lilac Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$628,000</t>
+          <t>$539,950</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
+          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5231,32 +5231,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
+          <t>306 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$769,000</t>
+          <t>$744,373</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
+          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -5266,32 +5266,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
+          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$565,000</t>
+          <t>$606,000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
+          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1,570</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5301,32 +5301,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
+          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
+          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1,115</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -5336,32 +5336,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>696 Linley Ln, Lincoln, CA 95648</t>
+          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
+          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2,809</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -5371,32 +5371,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
+          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$628,000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
+          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2,889</t>
+          <t>2,305</t>
         </is>
       </c>
     </row>
@@ -5406,17 +5406,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
+          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$769,000</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
+          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5441,32 +5441,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
+          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$660,000</t>
+          <t>$565,000</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
+          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>1,570</t>
         </is>
       </c>
     </row>
@@ -5476,17 +5476,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
+          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
+          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>1,115</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1197 Overland Ln, Lincoln, CA 95648</t>
+          <t>696 Linley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$1,190,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1197-Overland-Ln-95648/home/19600838</t>
+          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>2,809</t>
         </is>
       </c>
     </row>
@@ -5546,22 +5546,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1416 Grant St, Lincoln, CA 95648</t>
+          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$626,016</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
+          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,889</t>
         </is>
       </c>
     </row>
@@ -5581,17 +5581,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
+          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$2,890,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
+          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1,058</t>
+          <t>1,795</t>
         </is>
       </c>
     </row>
@@ -5616,17 +5616,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$660,000</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
+          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,990</t>
         </is>
       </c>
     </row>
@@ -5651,17 +5651,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
+          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$539,000</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
+          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1,843</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5686,32 +5686,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>584 - 588 L St, Lincoln, CA 95648</t>
+          <t>1416 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$626,016</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
+          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1,122</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -5721,17 +5721,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
+          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$2,890,000</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
+          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>1,058</t>
         </is>
       </c>
     </row>
@@ -5756,32 +5756,32 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>401 Via Vistoso, Lincoln, CA 95648</t>
+          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
+          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -5791,32 +5791,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
+          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$539,000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
+          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1,843</t>
         </is>
       </c>
     </row>
@@ -5826,17 +5826,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1173 Lodge Way, Lincoln, CA 95648</t>
+          <t>584 - 588 L St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$678,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
+          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>1,122</t>
         </is>
       </c>
     </row>
@@ -5861,17 +5861,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1697 Donner Ln, Lincoln, CA 95648</t>
+          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$800,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
+          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -5896,32 +5896,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
+          <t>401 Via Vistoso, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$875,000</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
+          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -5931,32 +5931,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
+          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$526,500</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
+          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -5966,32 +5966,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
+          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$609,900</t>
+          <t>$875,000</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
+          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1,777</t>
+          <t>4,235</t>
         </is>
       </c>
     </row>
@@ -6001,32 +6001,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>304 Amelia Ct, Lincoln, CA 95648</t>
+          <t>107 Walden View Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$692,069</t>
+          <t>$1,350,000</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
+          <t>/CA/Lincoln/107-Walden-View-Ct-95648/home/19602672</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,813</t>
         </is>
       </c>
     </row>
@@ -6036,32 +6036,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>400 Sydney Ter, Lincoln, CA 95648</t>
+          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$785,313</t>
+          <t>$750,000</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
+          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,846</t>
         </is>
       </c>
     </row>
@@ -6071,32 +6071,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>401 Sydney Ter, Lincoln, CA 95648</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$707,569</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -6106,32 +6106,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>303 Amelia Ct, Lincoln, CA 95648</t>
+          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$732,873</t>
+          <t>$526,500</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
+          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6141,32 +6141,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Undisclosed Address, Lincoln, CA 95648</t>
+          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$595,000</t>
+          <t>$609,900</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
+          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2,523</t>
+          <t>1,777</t>
         </is>
       </c>
     </row>
@@ -6176,17 +6176,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
+          <t>304 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$540,000</t>
+          <t>$692,069</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
+          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1,621</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6211,32 +6211,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>696 Geary Ln, Lincoln, CA 95648</t>
+          <t>400 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$518,000</t>
+          <t>$785,313</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
+          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1,449</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6246,32 +6246,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
+          <t>401 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$489,900</t>
+          <t>$707,569</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
+          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1,155</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6281,32 +6281,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
+          <t>303 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$639,000</t>
+          <t>$732,873</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
+          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6316,32 +6316,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>601 Yerington Pl, Lincoln, CA 95648</t>
+          <t>Undisclosed Address, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$595,000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
+          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,523</t>
         </is>
       </c>
     </row>
@@ -6351,32 +6351,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
+          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$540,000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
+          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1,885</t>
+          <t>1,621</t>
         </is>
       </c>
     </row>
@@ -6386,32 +6386,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>700 Valley View Cir, Lincoln, CA 95648</t>
+          <t>696 Geary Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$1,495,000</t>
+          <t>$518,000</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
+          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3,696</t>
+          <t>1,449</t>
         </is>
       </c>
     </row>
@@ -6421,32 +6421,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1440 Grant St, Lincoln, CA 95648</t>
+          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$571,295</t>
+          <t>$489,900</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
+          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>1,155</t>
         </is>
       </c>
     </row>
@@ -6456,32 +6456,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
+          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$869,000</t>
+          <t>$639,000</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
+          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2,349</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -6491,32 +6491,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1642 Midford Ln, Lincoln, CA 95648</t>
+          <t>601 Yerington Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
+          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2,582</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6526,32 +6526,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>906 Heartwood, Lincoln, CA 95648</t>
+          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
+          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2,597</t>
+          <t>1,885</t>
         </is>
       </c>
     </row>
@@ -6561,17 +6561,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
+          <t>700 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$1,495,000</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
+          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3,482</t>
+          <t>3,696</t>
         </is>
       </c>
     </row>
@@ -6596,32 +6596,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
+          <t>1440 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$1,071,430</t>
+          <t>$571,295</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
+          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -6631,32 +6631,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
+          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$545,000</t>
+          <t>$869,000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
+          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>1,491</t>
+          <t>2,349</t>
         </is>
       </c>
     </row>
@@ -6666,32 +6666,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
+          <t>1642 Midford Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$739,900</t>
+          <t>$625,000</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
+          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>2,582</t>
         </is>
       </c>
     </row>
@@ -6701,17 +6701,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
+          <t>906 Heartwood, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$1,670,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
+          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>5,397</t>
+          <t>2,597</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>305 Amelia Ct, Lincoln, CA 95648</t>
+          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$689,801</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
+          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>3,482</t>
         </is>
       </c>
     </row>
@@ -6771,22 +6771,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
+          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$629,000</t>
+          <t>$1,071,430</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
+          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2,653</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -6806,17 +6806,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>372 Daylily, Lincoln, CA 95648</t>
+          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$644,900</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
+          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1,837</t>
+          <t>1,491</t>
         </is>
       </c>
     </row>
@@ -6841,17 +6841,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
+          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$715,000</t>
+          <t>$739,900</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
+          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1,967</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -6876,32 +6876,32 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>708 Yerington Ct, Lincoln, CA 95648</t>
+          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$1,099,800</t>
+          <t>$1,670,000</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
+          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2,745</t>
+          <t>5,397</t>
         </is>
       </c>
     </row>
@@ -6911,32 +6911,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+          <t>305 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$790,000</t>
+          <t>$689,801</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
+          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3,928</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -6946,32 +6946,32 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$539,500</t>
+          <t>$629,000</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,653</t>
         </is>
       </c>
     </row>
@@ -6981,32 +6981,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+          <t>372 Daylily, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$677,705</t>
+          <t>$644,900</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>1,837</t>
         </is>
       </c>
     </row>
@@ -7016,32 +7016,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$688,600</t>
+          <t>$715,000</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
+          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>1,967</t>
         </is>
       </c>
     </row>
@@ -7051,32 +7051,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>121 Trenton Ct, Lincoln, CA 95648</t>
+          <t>708 Yerington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$688,691</t>
+          <t>$1,099,800</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
+          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2,745</t>
         </is>
       </c>
     </row>
@@ -7086,17 +7086,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$685,142</t>
+          <t>$790,000</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
+          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7106,12 +7106,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>3,928</t>
         </is>
       </c>
     </row>
@@ -7121,32 +7121,32 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$716,566</t>
+          <t>$539,500</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
+          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -7156,17 +7156,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$727,317</t>
+          <t>$677,705</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
+          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -7191,32 +7191,32 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
+          <t>100 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$619,900</t>
+          <t>$688,600</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
+          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2,067</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -7226,32 +7226,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
+          <t>121 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$688,691</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
+          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -7261,17 +7261,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>500 Pickering Ct, Lincoln, CA 95648</t>
+          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$685,142</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
+          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7281,12 +7281,82 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,290</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>$716,566</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2,770</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>$727,317</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2,770</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Lincoln_data.xlsx
+++ b/Zillow_API/Lincoln_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alan II, Lincoln, CA 95648</t>
+          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$573,950+</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
+          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sienna, Lincoln, CA 95648</t>
+          <t>Lake Plan 5, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$582,950+</t>
+          <t>$605,990+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Seth, Lincoln, CA 95648</t>
+          <t>Redwood Plan 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$639,950+</t>
+          <t>$512,990+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3,030</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andrea, Lincoln, CA 95648</t>
+          <t>Cedar Plan 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$622,950+</t>
+          <t>$492,900+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
+          <t>Sutherland, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$597,990+</t>
+          <t>$607,950+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2,622</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plan 2050, Lincoln, CA 95648</t>
+          <t>Alan II, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$552,990+</t>
+          <t>$573,950+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2,050</t>
+          <t>1,990</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
+          <t>Sienna, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$533,990+</t>
+          <t>$582,950+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Seth, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$518,990+</t>
+          <t>$639,950+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>3,030</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Andrea, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$560,990+</t>
+          <t>$622,950+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -786,17 +786,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$579,990+</t>
+          <t>$597,990+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,622</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Plan 2050, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$541,990+</t>
+          <t>$552,990+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,310</t>
+          <t>2,050</t>
         </is>
       </c>
     </row>
@@ -856,22 +856,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Willow Plan 3, Lincoln, CA 95648</t>
+          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$578,990+</t>
+          <t>$533,990+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Residence 2145, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$602,504+</t>
+          <t>$518,990+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2,020</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Residence 2679, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$671,569+</t>
+          <t>$560,990+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Residence 3104, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$689,801+</t>
+          <t>$579,990+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Residence 3312, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$727,421+</t>
+          <t>$541,990+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,310</t>
         </is>
       </c>
     </row>
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ascot Plan 7, Lincoln, CA 95648</t>
+          <t>Willow Plan 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$719,000+</t>
+          <t>$578,990+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1066,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 2145, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$772,500+</t>
+          <t>$602,504+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Residence 2679, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$687,500+</t>
+          <t>$671,569+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 3104, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$712,500+</t>
+          <t>$689,801+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2,627</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Residence 3312, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$722,500+</t>
+          <t>$727,421+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2,827</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -1206,32 +1206,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Plan 4137, Lincoln, CA 95648</t>
+          <t>Ascot Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$1,146,950+</t>
+          <t>$719,000+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
+          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4,137</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan 2705, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$978,950+</t>
+          <t>$772,500+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan 3255, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$1,066,950+</t>
+          <t>$687,500+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,293</t>
         </is>
       </c>
     </row>
@@ -1311,17 +1311,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plan 2776, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,021,950+</t>
+          <t>$712,500+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,627</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Plan 2360, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$903,950+</t>
+          <t>$722,500+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>2,827</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 4137, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$508,990+</t>
+          <t>$1,146,950+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>4,137</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Affirm, Lincoln, CA 95648</t>
+          <t>Plan 2705, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$635,999+</t>
+          <t>$978,950+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1,622</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -1451,32 +1451,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Unite, Lincoln, CA 95648</t>
+          <t>Plan 3255, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$612,999+</t>
+          <t>$1,066,950+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1,448</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -1486,32 +1486,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Explore, Lincoln, CA 95648</t>
+          <t>Plan 2776, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$674,999+</t>
+          <t>$1,021,950+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1,868</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Venture, Lincoln, CA 95648</t>
+          <t>Plan 2360, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$707,999+</t>
+          <t>$903,950+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>2,360</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Discover, Lincoln, CA 95648</t>
+          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$739,999+</t>
+          <t>$508,990+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>1,608</t>
         </is>
       </c>
     </row>
@@ -1591,32 +1591,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proclaim, Lincoln, CA 95648</t>
+          <t>Affirm, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$744,999+</t>
+          <t>$635,999+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2,141</t>
+          <t>1,622</t>
         </is>
       </c>
     </row>
@@ -1626,32 +1626,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vertex, Lincoln, CA 95648</t>
+          <t>Unite, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$920,499+</t>
+          <t>$612,999+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2,546</t>
+          <t>1,448</t>
         </is>
       </c>
     </row>
@@ -1661,32 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Perspective, Lincoln, CA 95648</t>
+          <t>Explore, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$759,999+</t>
+          <t>$674,999+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>1,868</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pinnacle, Lincoln, CA 95648</t>
+          <t>Venture, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$968,499+</t>
+          <t>$707,999+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>2,048</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>Discover, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>$739,999+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>Proclaim, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$865,000</t>
+          <t>$744,999+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3,489</t>
+          <t>2,141</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
+          <t>Vertex, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$2,999,999</t>
+          <t>$920,499+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2,584</t>
+          <t>2,546</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>849 Hadley Dr, Lincoln, CA 95648</t>
+          <t>Perspective, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$969,000</t>
+          <t>$759,999+</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,332</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>Pinnacle, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$968,499+</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>2,850</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
+          <t>2400 3rd St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$692,929</t>
+          <t>$633,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
+          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,460</t>
         </is>
       </c>
     </row>
@@ -1941,32 +1941,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
+          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$974,900</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
+          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3,833</t>
+          <t>7,465</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>420 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$2,800,000</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
+          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>1,928</t>
         </is>
       </c>
     </row>
@@ -2011,32 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$865,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>3,489</t>
         </is>
       </c>
     </row>
@@ -2046,22 +2046,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$2,999,999</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2,584</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>849 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$969,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1308 Grant St, Lincoln, CA 95648</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$574,455</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -2151,32 +2151,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>796 Lodge Way, Lincoln, CA 95648</t>
+          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$888,000</t>
+          <t>$692,929</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
+          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
+          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$974,900</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
+          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>3,833</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$570,000</t>
+          <t>$2,800,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
+          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>150.00</t>
         </is>
       </c>
     </row>
@@ -2256,32 +2256,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1116 Fox Ln, Lincoln, CA 95648</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$374,900</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -2326,32 +2326,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$439,000</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1308 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$574,455</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
+          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>796 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$888,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
+          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2431,32 +2431,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$1,399,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
+          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3,371</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>301 Felton Ct, Lincoln, CA 95648</t>
+          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$779,000</t>
+          <t>$570,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
+          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
+          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$3,850,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
+          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2,069</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -2536,32 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>429 Fuente Pl, Lincoln, CA 95648</t>
+          <t>1116 Fox Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$374,900</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
+          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -2571,17 +2571,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>147 W Wise Rd, Lincoln, CA 95648</t>
+          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$439,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
+          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>0.80</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>619 Valley View Cir, Lincoln, CA 95648</t>
+          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
+          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
+          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$619,000</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
+          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2676,22 +2676,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$749,950</t>
+          <t>$1,399,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
+          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2,830</t>
+          <t>3,371</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
+          <t>301 Felton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$779,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
+          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Meadow Plan 13, Lincoln, CA 95648</t>
+          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$870,990+</t>
+          <t>$3,850,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
+          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,069</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Harbor Plan 12, Lincoln, CA 95648</t>
+          <t>429 Fuente Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$852,990+</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
+          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Glacier Plan 11, Lincoln, CA 95648</t>
+          <t>147 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$822,990+</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
+          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2,655</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -2851,32 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Basin Plan 10, Lincoln, CA 95648</t>
+          <t>619 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$802,990+</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
+          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>21.40</t>
         </is>
       </c>
     </row>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Quail Plan 9, Lincoln, CA 95648</t>
+          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$702,990+</t>
+          <t>$619,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
+          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>2,099</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mallard Plan 8, Lincoln, CA 95648</t>
+          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$690,990+</t>
+          <t>$749,950</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
+          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2,830</t>
         </is>
       </c>
     </row>
@@ -2956,32 +2956,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
+          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$670,990+</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
+          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>359.40</t>
         </is>
       </c>
     </row>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>River Plan 6, Lincoln, CA 95648</t>
+          <t>145 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$616,990+</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
+          <t>/CA/Lincoln/145-W-Wise-Rd-95648/home/173194504</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lake Plan 5, Lincoln, CA 95648</t>
+          <t>Meadow Plan 13, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$605,990+</t>
+          <t>$870,990+</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -3061,17 +3061,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Redwood Plan 2, Lincoln, CA 95648</t>
+          <t>Harbor Plan 12, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$512,990+</t>
+          <t>$852,990+</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>2,823</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cedar Plan 1, Lincoln, CA 95648</t>
+          <t>Glacier Plan 11, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$492,900+</t>
+          <t>$822,990+</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>2,655</t>
         </is>
       </c>
     </row>
@@ -3131,32 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sutherland, Lincoln, CA 95648</t>
+          <t>Basin Plan 10, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$607,950+</t>
+          <t>$802,990+</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1173 Lodge Way, Lincoln, CA 95648</t>
+          <t>Quail Plan 9, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$677,000</t>
+          <t>$702,990+</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3201,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1697 Donner Ln, Lincoln, CA 95648</t>
+          <t>Mallard Plan 8, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$800,000</t>
+          <t>$690,990+</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1168 Lodge Way, Lincoln, CA 95648</t>
+          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$670,990+</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -3271,17 +3271,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>River Plan 6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$616,990+</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3306,17 +3306,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>584 - 588 L St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$806,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
+          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>1,122</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
+          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$1,299,900</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
+          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3,433</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -3376,32 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>152 O St #6, Lincoln, CA 95648</t>
+          <t>401 Via Vistoso, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$160,000</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
+          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>117 Cresta Ct, Lincoln, CA 95648</t>
+          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$1,598,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
+          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5,600</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -3446,32 +3446,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>310 Lexington Ct, Lincoln, CA 95648</t>
+          <t>1173 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$656,999</t>
+          <t>$677,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
+          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>1697 Donner Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$800,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
+          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2,277</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
+          <t>1168 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
+          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
+          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$594,999</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
+          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2,237</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -3586,17 +3586,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1879 Echo Ln, Lincoln, CA 95648</t>
+          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$849,900</t>
+          <t>$806,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
+          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -3621,22 +3621,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
+          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$1,299,900</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
+          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>3,433</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1660 Bella Cir, Lincoln, CA 95648</t>
+          <t>152 O St #6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$1,575,000</t>
+          <t>$160,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
+          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1392 Grant St, Lincoln, CA 95648</t>
+          <t>117 Cresta Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$575,955</t>
+          <t>$1,598,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
+          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>5,600</t>
         </is>
       </c>
     </row>
@@ -3726,17 +3726,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1258 Watson St, Lincoln, CA 95648</t>
+          <t>310 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$626,124</t>
+          <t>$656,999</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
+          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -3761,32 +3761,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
+          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
+          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>2,277</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$367,500</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
+          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -3831,32 +3831,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$594,999</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
+          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>2,237</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
+          <t>1879 Echo Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$875,500</t>
+          <t>$849,900</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
+          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3901,17 +3901,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,069,620</t>
+          <t>$734,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
+          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>765 Valencia St, Lincoln, CA 95648</t>
+          <t>1660 Bella Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$1,575,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
+          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3,061</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0 Moore Rd, Lincoln, CA 95648</t>
+          <t>1392 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$575,955</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
+          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -4006,32 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>1258 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$1,037,060</t>
+          <t>$626,124</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
+          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>330 Lexington Ct, Lincoln, CA 95648</t>
+          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$684,174</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
+          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2,779</t>
+          <t>1,400</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>700 Karchner Rd, Lincoln, CA 95648</t>
+          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$1,599,000</t>
+          <t>$367,500</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
+          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4,172</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$983,720</t>
+          <t>$875,500</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
+          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$1,078,390</t>
+          <t>$1,069,620</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
+          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>765 Valencia St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$1,007,690</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
+          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>3,061</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>0 Moore Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$1,001,450</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
+          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -4251,22 +4251,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,037,060</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
+          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -4286,17 +4286,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>792 Riley Way, Lincoln, CA 95648</t>
+          <t>330 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$779,900</t>
+          <t>$684,174</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
+          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>2,779</t>
         </is>
       </c>
     </row>
@@ -4321,32 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1697 Storeyfield, Lincoln, CA 95648</t>
+          <t>700 Karchner Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$980,000</t>
+          <t>$1,599,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
+          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3,717</t>
+          <t>4,172</t>
         </is>
       </c>
     </row>
@@ -4356,32 +4356,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
+          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$983,720</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
+          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>5,232</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4391,32 +4391,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
+          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$1,078,390</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
+          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -4426,32 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>100 Barley Ct, Lincoln, CA 95648</t>
+          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$797,500</t>
+          <t>$1,007,690</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
+          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4461,32 +4461,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2400 3rd St, Lincoln, CA 95648</t>
+          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$633,000</t>
+          <t>$1,001,450</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
+          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2,460</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4496,17 +4496,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
+          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
+          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>7,465</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -4531,17 +4531,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>420 7th St, Lincoln, CA 95648</t>
+          <t>792 Riley Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$699,900</t>
+          <t>$779,900</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
+          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
+          <t>1697 Storeyfield, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$619,900</t>
+          <t>$980,000</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
+          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2,067</t>
+          <t>3,717</t>
         </is>
       </c>
     </row>
@@ -4601,32 +4601,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
+          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$1,195,000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
+          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>5,232</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>500 Pickering Ct, Lincoln, CA 95648</t>
+          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
+          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4671,32 +4671,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
+          <t>100 Barley Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$670,000</t>
+          <t>$797,500</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
+          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -4706,32 +4706,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
+          <t>121 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$688,691</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
+          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3,206</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>103 Asti Ct, Lincoln, CA 95648</t>
+          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$729,900</t>
+          <t>$685,142</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
+          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3,144</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -4776,17 +4776,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1129 Amelia Way, Lincoln, CA 95648</t>
+          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$602,504</t>
+          <t>$716,566</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
+          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4796,12 +4796,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -4811,32 +4811,32 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
+          <t>101 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$727,317</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
+          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -4846,32 +4846,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$619,900</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
+          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3,281</t>
+          <t>2,067</t>
         </is>
       </c>
     </row>
@@ -4881,32 +4881,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
+          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
+          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -4916,22 +4916,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1519 7th St, Lincoln, CA 95648</t>
+          <t>500 Pickering Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$465,000</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
+          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -4951,32 +4951,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
+          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$480,000</t>
+          <t>$670,000</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
+          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -4986,32 +4986,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1078 Montague Ln, Lincoln, CA 95648</t>
+          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
+          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>3,206</t>
         </is>
       </c>
     </row>
@@ -5021,17 +5021,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
+          <t>103 Asti Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$555,000</t>
+          <t>$729,900</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
+          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>3,144</t>
         </is>
       </c>
     </row>
@@ -5056,32 +5056,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>205 Akashi Ct, Lincoln, CA 95648</t>
+          <t>1129 Amelia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$719,000</t>
+          <t>$602,504</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
+          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -5091,32 +5091,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
+          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$829,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
+          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2,192</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5126,32 +5126,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>3,281</t>
         </is>
       </c>
     </row>
@@ -5161,32 +5161,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>301 Tasso Pl, Lincoln, CA 95648</t>
+          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
+          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3,236</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -5196,22 +5196,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>340 Lilac Ln, Lincoln, CA 95648</t>
+          <t>1519 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$539,950</t>
+          <t>$465,000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
+          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>1,201</t>
         </is>
       </c>
     </row>
@@ -5231,32 +5231,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>306 Amelia Ct, Lincoln, CA 95648</t>
+          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$744,373</t>
+          <t>$480,000</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
+          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -5266,22 +5266,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
+          <t>1078 Montague Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$606,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
+          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -5301,32 +5301,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
+          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$555,000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
+          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1,700</t>
         </is>
       </c>
     </row>
@@ -5336,32 +5336,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
+          <t>205 Akashi Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$719,000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
+          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -5371,17 +5371,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
+          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$628,000</t>
+          <t>$829,000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
+          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>2,192</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$769,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -5441,32 +5441,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
+          <t>301 Tasso Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$565,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
+          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1,570</t>
+          <t>3,236</t>
         </is>
       </c>
     </row>
@@ -5476,22 +5476,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
+          <t>340 Lilac Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$539,950</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
+          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1,115</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5511,32 +5511,32 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>696 Linley Ln, Lincoln, CA 95648</t>
+          <t>306 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$744,373</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
+          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2,809</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -5546,32 +5546,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
+          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$606,000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
+          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2,889</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5581,32 +5581,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
+          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
+          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -5616,17 +5616,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
+          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$660,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
+          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -5651,22 +5651,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
+          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$628,000</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
+          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>2,305</t>
         </is>
       </c>
     </row>
@@ -5686,32 +5686,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1416 Grant St, Lincoln, CA 95648</t>
+          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$626,016</t>
+          <t>$745,000</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
+          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5721,32 +5721,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
+          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$2,890,000</t>
+          <t>$565,000</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
+          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1,058</t>
+          <t>1,570</t>
         </is>
       </c>
     </row>
@@ -5756,32 +5756,32 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
+          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>1,115</t>
         </is>
       </c>
     </row>
@@ -5791,32 +5791,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
+          <t>696 Linley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$539,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
+          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1,843</t>
+          <t>2,809</t>
         </is>
       </c>
     </row>
@@ -5826,32 +5826,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>584 - 588 L St, Lincoln, CA 95648</t>
+          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
+          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1,122</t>
+          <t>2,889</t>
         </is>
       </c>
     </row>
@@ -5861,17 +5861,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
+          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
+          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>1,795</t>
         </is>
       </c>
     </row>
@@ -5896,32 +5896,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>401 Via Vistoso, Lincoln, CA 95648</t>
+          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$660,000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
+          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2,990</t>
         </is>
       </c>
     </row>
@@ -5931,32 +5931,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
+          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$749,500</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
+          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5966,17 +5966,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
+          <t>1416 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$875,000</t>
+          <t>$626,016</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
+          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5986,12 +5986,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -6001,32 +6001,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>107 Walden View Ct, Lincoln, CA 95648</t>
+          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$1,350,000</t>
+          <t>$2,890,000</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/107-Walden-View-Ct-95648/home/19602672</t>
+          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2,813</t>
+          <t>1,058</t>
         </is>
       </c>
     </row>
@@ -6036,32 +6036,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
+          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$750,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
+          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -6071,17 +6071,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
+          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$599,900</t>
+          <t>$539,000</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
+          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>1,706</t>
+          <t>1,843</t>
         </is>
       </c>
     </row>
@@ -6106,32 +6106,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
+          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$526,500</t>
+          <t>$875,000</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
+          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>4,235</t>
         </is>
       </c>
     </row>
@@ -6141,32 +6141,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
+          <t>1869 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$609,900</t>
+          <t>$1,789,000</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
+          <t>/CA/Lincoln/1869-Camino-Verdera-95648/home/19606802</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1,777</t>
+          <t>3,837</t>
         </is>
       </c>
     </row>
@@ -6176,17 +6176,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>304 Amelia Ct, Lincoln, CA 95648</t>
+          <t>822 Farrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$692,069</t>
+          <t>$569,000</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
+          <t>/CA/Lincoln/822-Farrington-Ln-95648/home/19606031</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,091</t>
         </is>
       </c>
     </row>
@@ -6211,32 +6211,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>400 Sydney Ter, Lincoln, CA 95648</t>
+          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$785,313</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
+          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,312</t>
         </is>
       </c>
     </row>
@@ -6246,32 +6246,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>401 Sydney Ter, Lincoln, CA 95648</t>
+          <t>1320 Incline Dr #3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$707,569</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
+          <t>/CA/Lincoln/1320-Incline-Dr-95648/unit-3/home/175590129</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,746</t>
         </is>
       </c>
     </row>
@@ -6281,32 +6281,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>303 Amelia Ct, Lincoln, CA 95648</t>
+          <t>107 Walden View Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$732,873</t>
+          <t>$1,350,000</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
+          <t>/CA/Lincoln/107-Walden-View-Ct-95648/home/19602672</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,813</t>
         </is>
       </c>
     </row>
@@ -6316,32 +6316,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Undisclosed Address, Lincoln, CA 95648</t>
+          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$595,000</t>
+          <t>$750,000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
+          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2,523</t>
+          <t>2,846</t>
         </is>
       </c>
     </row>
@@ -6351,17 +6351,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$540,000</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1,621</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -6386,17 +6386,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>696 Geary Ln, Lincoln, CA 95648</t>
+          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$518,000</t>
+          <t>$526,500</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
+          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1,449</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6421,17 +6421,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
+          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$489,900</t>
+          <t>$609,900</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
+          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1,155</t>
+          <t>1,777</t>
         </is>
       </c>
     </row>
@@ -6456,32 +6456,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
+          <t>304 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$639,000</t>
+          <t>$692,069</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
+          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6491,32 +6491,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>601 Yerington Pl, Lincoln, CA 95648</t>
+          <t>400 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$785,313</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
+          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6526,32 +6526,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
+          <t>401 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$707,569</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
+          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1,885</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6561,17 +6561,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>700 Valley View Cir, Lincoln, CA 95648</t>
+          <t>303 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$1,495,000</t>
+          <t>$732,873</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
+          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3,696</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6596,17 +6596,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1440 Grant St, Lincoln, CA 95648</t>
+          <t>Undisclosed Address, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$571,295</t>
+          <t>$595,000</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
+          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2,523</t>
         </is>
       </c>
     </row>
@@ -6631,17 +6631,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
+          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$869,000</t>
+          <t>$540,000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
+          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6651,12 +6651,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2,349</t>
+          <t>1,621</t>
         </is>
       </c>
     </row>
@@ -6666,32 +6666,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1642 Midford Ln, Lincoln, CA 95648</t>
+          <t>696 Geary Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$518,000</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
+          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2,582</t>
+          <t>1,449</t>
         </is>
       </c>
     </row>
@@ -6701,32 +6701,32 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>906 Heartwood, Lincoln, CA 95648</t>
+          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$489,900</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
+          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2,597</t>
+          <t>1,155</t>
         </is>
       </c>
     </row>
@@ -6736,32 +6736,32 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
+          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$639,000</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
+          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3,482</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -6771,32 +6771,32 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
+          <t>601 Yerington Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$1,071,430</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
+          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6806,17 +6806,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
+          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$545,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
+          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6826,12 +6826,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1,491</t>
+          <t>1,885</t>
         </is>
       </c>
     </row>
@@ -6841,32 +6841,32 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
+          <t>700 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$739,900</t>
+          <t>$1,495,000</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
+          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>3,696</t>
         </is>
       </c>
     </row>
@@ -6876,32 +6876,32 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
+          <t>1440 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$1,670,000</t>
+          <t>$571,295</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
+          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5,397</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -6911,22 +6911,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>305 Amelia Ct, Lincoln, CA 95648</t>
+          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$689,801</t>
+          <t>$869,000</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
+          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>2,349</t>
         </is>
       </c>
     </row>
@@ -6946,17 +6946,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
+          <t>1642 Midford Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$629,000</t>
+          <t>$625,000</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
+          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6966,12 +6966,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2,653</t>
+          <t>2,582</t>
         </is>
       </c>
     </row>
@@ -6981,32 +6981,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>372 Daylily, Lincoln, CA 95648</t>
+          <t>906 Heartwood, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$644,900</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
+          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1,837</t>
+          <t>2,597</t>
         </is>
       </c>
     </row>
@@ -7016,32 +7016,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
+          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$715,000</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
+          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>1,967</t>
+          <t>3,482</t>
         </is>
       </c>
     </row>
@@ -7051,17 +7051,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>708 Yerington Ct, Lincoln, CA 95648</t>
+          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$1,099,800</t>
+          <t>$1,071,430</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
+          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2,745</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -7086,32 +7086,32 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$790,000</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
+          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3,928</t>
+          <t>1,491</t>
         </is>
       </c>
     </row>
@@ -7121,17 +7121,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$539,500</t>
+          <t>$739,900</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -7156,32 +7156,32 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$677,705</t>
+          <t>$1,670,000</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>5,397</t>
         </is>
       </c>
     </row>
@@ -7191,22 +7191,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+          <t>305 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$688,600</t>
+          <t>$689,801</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
+          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -7226,17 +7226,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>121 Trenton Ct, Lincoln, CA 95648</t>
+          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$688,691</t>
+          <t>$629,000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
+          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2,653</t>
         </is>
       </c>
     </row>
@@ -7261,32 +7261,32 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
+          <t>372 Daylily, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$685,142</t>
+          <t>$644,900</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
+          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>1,837</t>
         </is>
       </c>
     </row>
@@ -7296,32 +7296,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>$716,566</t>
+          <t>$715,000</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
+          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>1,967</t>
         </is>
       </c>
     </row>
@@ -7331,32 +7331,172 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+          <t>708 Yerington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>$727,317</t>
+          <t>$1,099,800</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
+          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2,745</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>$790,000</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>2,770</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>3,928</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>$539,500</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1,322</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>$677,705</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2,290</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>$688,600</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2,290</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Lincoln_data.xlsx
+++ b/Zillow_API/Lincoln_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>Perspective, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>$759,999+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,332</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lake Plan 5, Lincoln, CA 95648</t>
+          <t>Pinnacle, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$605,990+</t>
+          <t>$968,499+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2,850</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Redwood Plan 2, Lincoln, CA 95648</t>
+          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$512,990+</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
+          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cedar Plan 1, Lincoln, CA 95648</t>
+          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$492,900+</t>
+          <t>$670,990+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sutherland, Lincoln, CA 95648</t>
+          <t>River Plan 6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$607,950+</t>
+          <t>$616,990+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alan II, Lincoln, CA 95648</t>
+          <t>Lake Plan 5, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$573,950+</t>
+          <t>$605,990+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sienna, Lincoln, CA 95648</t>
+          <t>Redwood Plan 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$582,950+</t>
+          <t>$512,990+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -716,32 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seth, Lincoln, CA 95648</t>
+          <t>Cedar Plan 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$639,950+</t>
+          <t>$492,900+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3,030</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Andrea, Lincoln, CA 95648</t>
+          <t>Sutherland, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$622,950+</t>
+          <t>$607,950+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
+          <t>Alan II, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$597,990+</t>
+          <t>$573,950+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,622</t>
+          <t>1,990</t>
         </is>
       </c>
     </row>
@@ -821,32 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Plan 2050, Lincoln, CA 95648</t>
+          <t>Sienna, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$552,990+</t>
+          <t>$582,950+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,050</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
+          <t>Seth, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$533,990+</t>
+          <t>$639,950+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -876,12 +876,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>3,030</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Andrea, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$518,990+</t>
+          <t>$622,950+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$560,990+</t>
+          <t>$597,990+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>2,622</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Plan 2050, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$579,990+</t>
+          <t>$552,990+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,050</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$541,990+</t>
+          <t>$533,990+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2,310</t>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Willow Plan 3, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$578,990+</t>
+          <t>$518,990+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,020</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1066,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Residence 2145, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$602,504+</t>
+          <t>$560,990+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Residence 2679, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$671,569+</t>
+          <t>$579,990+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residence 3104, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$689,801+</t>
+          <t>$541,990+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>2,310</t>
         </is>
       </c>
     </row>
@@ -1171,32 +1171,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Residence 3312, Lincoln, CA 95648</t>
+          <t>Willow Plan 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$727,421+</t>
+          <t>$578,990+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -1206,32 +1206,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ascot Plan 7, Lincoln, CA 95648</t>
+          <t>Residence 2145, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$719,000+</t>
+          <t>$602,504+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 2679, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$772,500+</t>
+          <t>$671,569+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Residence 3104, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$687,500+</t>
+          <t>$689,801+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -1311,32 +1311,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 3312, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$712,500+</t>
+          <t>$727,421+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2,627</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -1346,32 +1346,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Ascot Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$722,500+</t>
+          <t>$719,000+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
+          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2,827</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Plan 4137, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,146,950+</t>
+          <t>$772,500+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4,137</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Plan 2705, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$978,950+</t>
+          <t>$687,500+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,293</t>
         </is>
       </c>
     </row>
@@ -1451,32 +1451,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Plan 3255, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,066,950+</t>
+          <t>$712,500+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,627</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Plan 2776, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$1,021,950+</t>
+          <t>$722,500+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,827</t>
         </is>
       </c>
     </row>
@@ -1521,32 +1521,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plan 2360, Lincoln, CA 95648</t>
+          <t>Plan 4137, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$903,950+</t>
+          <t>$1,146,950+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>4,137</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2705, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$508,990+</t>
+          <t>$978,950+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -1591,32 +1591,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Affirm, Lincoln, CA 95648</t>
+          <t>Plan 3255, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$635,999+</t>
+          <t>$1,066,950+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1,622</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -1626,32 +1626,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Unite, Lincoln, CA 95648</t>
+          <t>Plan 2776, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$612,999+</t>
+          <t>$1,021,950+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1,448</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -1661,32 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Explore, Lincoln, CA 95648</t>
+          <t>Plan 2360, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$674,999+</t>
+          <t>$903,950+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1,868</t>
+          <t>2,360</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Venture, Lincoln, CA 95648</t>
+          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$707,999+</t>
+          <t>$508,990+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>1,608</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Discover, Lincoln, CA 95648</t>
+          <t>Affirm, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$739,999+</t>
+          <t>$635,999+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>1,622</t>
         </is>
       </c>
     </row>
@@ -1766,32 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proclaim, Lincoln, CA 95648</t>
+          <t>Unite, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$744,999+</t>
+          <t>$612,999+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2,141</t>
+          <t>1,448</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vertex, Lincoln, CA 95648</t>
+          <t>Explore, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$920,499+</t>
+          <t>$674,999+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2,546</t>
+          <t>1,868</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Perspective, Lincoln, CA 95648</t>
+          <t>Venture, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$759,999+</t>
+          <t>$707,999+</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>2,048</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pinnacle, Lincoln, CA 95648</t>
+          <t>Discover, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$968,499+</t>
+          <t>$739,999+</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -1906,32 +1906,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2400 3rd St, Lincoln, CA 95648</t>
+          <t>Proclaim, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$633,000</t>
+          <t>$744,999+</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2,460</t>
+          <t>2,141</t>
         </is>
       </c>
     </row>
@@ -1941,32 +1941,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
+          <t>Vertex, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$920,499+</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>7,465</t>
+          <t>2,546</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>420 7th St, Lincoln, CA 95648</t>
+          <t>100 Barley Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$699,900</t>
+          <t>$797,500</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
+          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -2011,32 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2400 3rd St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$865,000</t>
+          <t>$633,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
+          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3,489</t>
+          <t>2,460</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2046,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
+          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$2,999,999</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
+          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2,584</t>
+          <t>7,465</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2081,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>849 Hadley Dr, Lincoln, CA 95648</t>
+          <t>420 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$969,000</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
+          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>1,928</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$865,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>3,489</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
+          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$692,929</t>
+          <t>$2,999,999</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
+          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>2,584</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
+          <t>3607 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$974,900</t>
+          <t>$1,899,800</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
+          <t>/CA/Lincoln/3607-Camino-Cielo-95648/home/19596655</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3,833</t>
+          <t>5,736</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>849 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$2,800,000</t>
+          <t>$969,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
+          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -2291,22 +2291,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$692,929</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$974,900</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>3,833</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1308 Grant St, Lincoln, CA 95648</t>
+          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$574,455</t>
+          <t>$2,800,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
+          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>150.00</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>796 Lodge Way, Lincoln, CA 95648</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$888,000</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -2431,22 +2431,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$570,000</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>1308 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$574,455</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
+          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -2536,32 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1116 Fox Ln, Lincoln, CA 95648</t>
+          <t>796 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$374,900</t>
+          <t>$888,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
+          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -2571,32 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
+          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$439,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
+          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$570,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
+          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
+          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -2676,32 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>1116 Fox Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$1,399,000</t>
+          <t>$374,900</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
+          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3,371</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>301 Felton Ct, Lincoln, CA 95648</t>
+          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$779,000</t>
+          <t>$439,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
+          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>0.80</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
+          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$3,850,000</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
+          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2,069</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>429 Fuente Pl, Lincoln, CA 95648</t>
+          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
+          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>147 W Wise Rd, Lincoln, CA 95648</t>
+          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$1,399,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
+          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3,371</t>
         </is>
       </c>
     </row>
@@ -2851,32 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>619 Valley View Cir, Lincoln, CA 95648</t>
+          <t>301 Felton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$779,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
+          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
+          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$619,000</t>
+          <t>$3,850,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
+          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>2,069</t>
         </is>
       </c>
     </row>
@@ -2921,32 +2921,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>429 Fuente Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$749,950</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
+          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2,830</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
+          <t>147 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
+          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -2991,32 +2991,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>145 W Wise Rd, Lincoln, CA 95648</t>
+          <t>619 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/145-W-Wise-Rd-95648/home/173194504</t>
+          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1,845</t>
+          <t>21.40</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Meadow Plan 13, Lincoln, CA 95648</t>
+          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$870,990+</t>
+          <t>$619,000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
+          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>2,099</t>
         </is>
       </c>
     </row>
@@ -3061,17 +3061,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Harbor Plan 12, Lincoln, CA 95648</t>
+          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$852,990+</t>
+          <t>$749,950</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
+          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>2,830</t>
         </is>
       </c>
     </row>
@@ -3096,32 +3096,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Glacier Plan 11, Lincoln, CA 95648</t>
+          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$822,990+</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
+          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2,655</t>
+          <t>359.40</t>
         </is>
       </c>
     </row>
@@ -3131,22 +3131,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Basin Plan 10, Lincoln, CA 95648</t>
+          <t>145 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$802,990+</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
+          <t>/CA/Lincoln/145-W-Wise-Rd-95648/home/173194504</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -3166,32 +3166,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Quail Plan 9, Lincoln, CA 95648</t>
+          <t>Meadow Plan 13, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$702,990+</t>
+          <t>$870,990+</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3201,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mallard Plan 8, Lincoln, CA 95648</t>
+          <t>Harbor Plan 12, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$690,990+</t>
+          <t>$852,990+</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2,823</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
+          <t>Glacier Plan 11, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$670,990+</t>
+          <t>$822,990+</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>2,655</t>
         </is>
       </c>
     </row>
@@ -3271,17 +3271,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>River Plan 6, Lincoln, CA 95648</t>
+          <t>Basin Plan 10, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$616,990+</t>
+          <t>$802,990+</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -3306,17 +3306,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>584 - 588 L St, Lincoln, CA 95648</t>
+          <t>Quail Plan 9, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$702,990+</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1,122</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
+          <t>Mallard Plan 8, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$690,990+</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -3376,32 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>401 Via Vistoso, Lincoln, CA 95648</t>
+          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$539,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
+          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1,843</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
+          <t>584 - 588 L St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
+          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1,122</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1173 Lodge Way, Lincoln, CA 95648</t>
+          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$677,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
+          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1697 Donner Ln, Lincoln, CA 95648</t>
+          <t>401 Via Vistoso, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$800,000</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
+          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1168 Lodge Way, Lincoln, CA 95648</t>
+          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
+          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -3551,17 +3551,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>1173 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$677,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
+          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -3586,17 +3586,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>1697 Donner Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$806,000</t>
+          <t>$800,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
+          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
+          <t>1168 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$1,299,900</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
+          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3,433</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>152 O St #6, Lincoln, CA 95648</t>
+          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$160,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
+          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>117 Cresta Ct, Lincoln, CA 95648</t>
+          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$1,598,000</t>
+          <t>$806,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
+          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>5,600</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -3726,22 +3726,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>310 Lexington Ct, Lincoln, CA 95648</t>
+          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$656,999</t>
+          <t>$1,299,900</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
+          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>3,433</t>
         </is>
       </c>
     </row>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>152 O St #6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$160,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
+          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2,277</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
+          <t>117 Cresta Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$1,598,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
+          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>5,600</t>
         </is>
       </c>
     </row>
@@ -3831,17 +3831,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
+          <t>310 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$594,999</t>
+          <t>$656,999</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
+          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2,237</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1879 Echo Ln, Lincoln, CA 95648</t>
+          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$849,900</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
+          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>2,277</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
+          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
+          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1660 Bella Cir, Lincoln, CA 95648</t>
+          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$1,575,000</t>
+          <t>$594,999</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
+          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>2,237</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1392 Grant St, Lincoln, CA 95648</t>
+          <t>1879 Echo Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$575,955</t>
+          <t>$849,900</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
+          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -4006,17 +4006,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1258 Watson St, Lincoln, CA 95648</t>
+          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$626,124</t>
+          <t>$734,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
+          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
+          <t>1660 Bella Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$1,575,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
+          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1392 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$367,500</t>
+          <t>$575,955</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
+          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -4111,32 +4111,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
+          <t>1258 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$875,500</t>
+          <t>$626,124</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
+          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -4146,32 +4146,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$1,069,620</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
+          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>1,400</t>
         </is>
       </c>
     </row>
@@ -4181,32 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>765 Valencia St, Lincoln, CA 95648</t>
+          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$367,500</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
+          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3,061</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0 Moore Rd, Lincoln, CA 95648</t>
+          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$875,500</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
+          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$1,037,060</t>
+          <t>$1,069,620</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
+          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>330 Lexington Ct, Lincoln, CA 95648</t>
+          <t>765 Valencia St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$684,174</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
+          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2,779</t>
+          <t>3,061</t>
         </is>
       </c>
     </row>
@@ -4321,32 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>700 Karchner Rd, Lincoln, CA 95648</t>
+          <t>0 Moore Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$1,599,000</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
+          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4,172</t>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4356,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$983,720</t>
+          <t>$1,037,060</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
+          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -4391,32 +4391,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>330 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$1,078,390</t>
+          <t>$684,174</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
+          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,779</t>
         </is>
       </c>
     </row>
@@ -4426,32 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>700 Karchner Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$1,007,690</t>
+          <t>$1,599,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
+          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>4,172</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$1,001,450</t>
+          <t>$983,720</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
+          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4496,17 +4496,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,078,390</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
+          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -4531,17 +4531,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>792 Riley Way, Lincoln, CA 95648</t>
+          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$779,900</t>
+          <t>$1,007,690</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
+          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1697 Storeyfield, Lincoln, CA 95648</t>
+          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$980,000</t>
+          <t>$1,001,450</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
+          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>3,717</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4601,32 +4601,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
+          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
+          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5,232</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -4636,32 +4636,32 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
+          <t>792 Riley Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$779,900</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
+          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -4671,32 +4671,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>100 Barley Ct, Lincoln, CA 95648</t>
+          <t>1697 Storeyfield, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$797,500</t>
+          <t>$980,000</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
+          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>3,717</t>
         </is>
       </c>
     </row>
@@ -4706,22 +4706,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>121 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$688,691</t>
+          <t>$1,195,000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
+          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>5,232</t>
         </is>
       </c>
     </row>
@@ -4741,32 +4741,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
+          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$685,142</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
+          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -4776,17 +4776,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+          <t>100 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$716,566</t>
+          <t>$688,600</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
+          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -4811,17 +4811,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+          <t>121 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$727,317</t>
+          <t>$688,691</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
+          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -4846,32 +4846,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
+          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$619,900</t>
+          <t>$685,142</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
+          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2,067</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -4881,32 +4881,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
+          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$716,566</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
+          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>500 Pickering Ct, Lincoln, CA 95648</t>
+          <t>101 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$727,317</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
+          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -4951,22 +4951,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
+          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$670,000</t>
+          <t>$619,900</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
+          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>2,067</t>
         </is>
       </c>
     </row>
@@ -4986,32 +4986,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
+          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
+          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3,206</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -5021,17 +5021,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>103 Asti Ct, Lincoln, CA 95648</t>
+          <t>500 Pickering Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$729,900</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
+          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3,144</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -5056,32 +5056,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1129 Amelia Way, Lincoln, CA 95648</t>
+          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$602,504</t>
+          <t>$670,000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
+          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -5091,32 +5091,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
+          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
+          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>3,206</t>
         </is>
       </c>
     </row>
@@ -5126,17 +5126,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>103 Asti Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$729,900</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
+          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3,281</t>
+          <t>3,144</t>
         </is>
       </c>
     </row>
@@ -5161,17 +5161,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
+          <t>1129 Amelia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$602,504</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
+          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -5196,22 +5196,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1519 7th St, Lincoln, CA 95648</t>
+          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$465,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
+          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5231,32 +5231,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
+          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$480,000</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
+          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>3,281</t>
         </is>
       </c>
     </row>
@@ -5266,17 +5266,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1078 Montague Ln, Lincoln, CA 95648</t>
+          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
+          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5286,12 +5286,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -5301,22 +5301,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
+          <t>1519 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$555,000</t>
+          <t>$465,000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
+          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>1,201</t>
         </is>
       </c>
     </row>
@@ -5336,32 +5336,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>205 Akashi Ct, Lincoln, CA 95648</t>
+          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$719,000</t>
+          <t>$480,000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
+          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -5371,17 +5371,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
+          <t>1078 Montague Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$829,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
+          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2,192</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$555,000</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>1,700</t>
         </is>
       </c>
     </row>
@@ -5441,32 +5441,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>301 Tasso Pl, Lincoln, CA 95648</t>
+          <t>205 Akashi Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$719,000</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
+          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>3,236</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -5476,32 +5476,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>340 Lilac Ln, Lincoln, CA 95648</t>
+          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$539,950</t>
+          <t>$829,000</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
+          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,192</t>
         </is>
       </c>
     </row>
@@ -5511,32 +5511,32 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>306 Amelia Ct, Lincoln, CA 95648</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$744,373</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -5546,32 +5546,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
+          <t>301 Tasso Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$606,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
+          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>3,236</t>
         </is>
       </c>
     </row>
@@ -5581,32 +5581,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
+          <t>340 Lilac Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$539,950</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
+          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5616,17 +5616,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
+          <t>306 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$744,373</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
+          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -5651,22 +5651,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
+          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$628,000</t>
+          <t>$606,000</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
+          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5686,32 +5686,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
+          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$745,000</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
+          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -5721,32 +5721,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
+          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$565,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
+          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1,570</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -5756,22 +5756,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
+          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$628,000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
+          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1,115</t>
+          <t>2,305</t>
         </is>
       </c>
     </row>
@@ -5791,32 +5791,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>696 Linley Ln, Lincoln, CA 95648</t>
+          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$745,000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
+          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2,809</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5826,32 +5826,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
+          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$565,000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
+          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2,889</t>
+          <t>1,570</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
+          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
+          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>1,115</t>
         </is>
       </c>
     </row>
@@ -5896,32 +5896,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
+          <t>696 Linley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$660,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
+          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>2,809</t>
         </is>
       </c>
     </row>
@@ -5931,32 +5931,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
+          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$749,500</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
+          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>2,889</t>
         </is>
       </c>
     </row>
@@ -5966,32 +5966,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1416 Grant St, Lincoln, CA 95648</t>
+          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$626,016</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
+          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>1,795</t>
         </is>
       </c>
     </row>
@@ -6001,32 +6001,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
+          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$2,890,000</t>
+          <t>$660,000</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
+          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1,058</t>
+          <t>2,990</t>
         </is>
       </c>
     </row>
@@ -6036,32 +6036,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$749,500</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
+          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -6071,32 +6071,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
+          <t>1416 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$539,000</t>
+          <t>$626,016</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
+          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>1,843</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -6106,32 +6106,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
+          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$875,000</t>
+          <t>$2,890,000</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
+          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>1,058</t>
         </is>
       </c>
     </row>
@@ -6141,17 +6141,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1869 Camino Verdera, Lincoln, CA 95648</t>
+          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$1,789,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1869-Camino-Verdera-95648/home/19606802</t>
+          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3,837</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -6176,17 +6176,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>822 Farrington Ln, Lincoln, CA 95648</t>
+          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$569,000</t>
+          <t>$875,000</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/822-Farrington-Ln-95648/home/19606031</t>
+          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2,091</t>
+          <t>4,235</t>
         </is>
       </c>
     </row>
@@ -6211,32 +6211,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
+          <t>319 Ferrari Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$589,000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
+          <t>/CA/Lincoln/319-Ferrari-Way-95648/home/19585283</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2,312</t>
+          <t>1,742</t>
         </is>
       </c>
     </row>
@@ -6246,32 +6246,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1320 Incline Dr #3, Lincoln, CA 95648</t>
+          <t>1869 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$1,789,000</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1320-Incline-Dr-95648/unit-3/home/175590129</t>
+          <t>/CA/Lincoln/1869-Camino-Verdera-95648/home/19606802</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1,746</t>
+          <t>3,837</t>
         </is>
       </c>
     </row>
@@ -6281,32 +6281,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>107 Walden View Ct, Lincoln, CA 95648</t>
+          <t>822 Farrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$1,350,000</t>
+          <t>$569,000</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/107-Walden-View-Ct-95648/home/19602672</t>
+          <t>/CA/Lincoln/822-Farrington-Ln-95648/home/19606031</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2,813</t>
+          <t>2,091</t>
         </is>
       </c>
     </row>
@@ -6316,32 +6316,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
+          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$750,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
+          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>2,312</t>
         </is>
       </c>
     </row>
@@ -6351,32 +6351,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
+          <t>1320 Incline Dr #3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$599,900</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
+          <t>/CA/Lincoln/1320-Incline-Dr-95648/unit-3/home/175590129</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1,706</t>
+          <t>1,746</t>
         </is>
       </c>
     </row>
@@ -6386,32 +6386,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
+          <t>107 Walden View Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$526,500</t>
+          <t>$1,350,000</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
+          <t>/CA/Lincoln/107-Walden-View-Ct-95648/home/19602672</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,813</t>
         </is>
       </c>
     </row>
@@ -6421,32 +6421,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
+          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$609,900</t>
+          <t>$750,000</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
+          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1,777</t>
+          <t>2,846</t>
         </is>
       </c>
     </row>
@@ -6456,32 +6456,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>304 Amelia Ct, Lincoln, CA 95648</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$692,069</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -6491,32 +6491,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>400 Sydney Ter, Lincoln, CA 95648</t>
+          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$785,313</t>
+          <t>$526,500</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
+          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6526,32 +6526,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>401 Sydney Ter, Lincoln, CA 95648</t>
+          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$707,569</t>
+          <t>$609,900</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
+          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,777</t>
         </is>
       </c>
     </row>
@@ -6561,17 +6561,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>303 Amelia Ct, Lincoln, CA 95648</t>
+          <t>304 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$732,873</t>
+          <t>$692,069</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
+          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6596,17 +6596,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Undisclosed Address, Lincoln, CA 95648</t>
+          <t>400 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$595,000</t>
+          <t>$785,313</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
+          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2,523</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6631,32 +6631,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
+          <t>401 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$540,000</t>
+          <t>$707,569</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
+          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>1,621</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6666,32 +6666,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>696 Geary Ln, Lincoln, CA 95648</t>
+          <t>303 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$518,000</t>
+          <t>$732,873</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
+          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1,449</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6701,32 +6701,32 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
+          <t>Undisclosed Address, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$489,900</t>
+          <t>$595,000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
+          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1,155</t>
+          <t>2,523</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
+          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$639,000</t>
+          <t>$540,000</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
+          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>1,621</t>
         </is>
       </c>
     </row>
@@ -6771,17 +6771,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>601 Yerington Pl, Lincoln, CA 95648</t>
+          <t>696 Geary Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$518,000</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
+          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>1,449</t>
         </is>
       </c>
     </row>
@@ -6806,17 +6806,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
+          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$489,900</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
+          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6826,12 +6826,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1,885</t>
+          <t>1,155</t>
         </is>
       </c>
     </row>
@@ -6841,32 +6841,32 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>700 Valley View Cir, Lincoln, CA 95648</t>
+          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$1,495,000</t>
+          <t>$639,000</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
+          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>3,696</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -6876,32 +6876,32 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1440 Grant St, Lincoln, CA 95648</t>
+          <t>601 Yerington Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$571,295</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
+          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6911,32 +6911,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
+          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$869,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
+          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2,349</t>
+          <t>1,885</t>
         </is>
       </c>
     </row>
@@ -6946,17 +6946,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1642 Midford Ln, Lincoln, CA 95648</t>
+          <t>700 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$1,495,000</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
+          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6966,12 +6966,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2,582</t>
+          <t>3,696</t>
         </is>
       </c>
     </row>
@@ -6981,22 +6981,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>906 Heartwood, Lincoln, CA 95648</t>
+          <t>1440 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$571,295</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
+          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2,597</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -7016,22 +7016,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
+          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$869,000</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
+          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>3,482</t>
+          <t>2,349</t>
         </is>
       </c>
     </row>
@@ -7051,32 +7051,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
+          <t>1642 Midford Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$1,071,430</t>
+          <t>$625,000</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
+          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,582</t>
         </is>
       </c>
     </row>
@@ -7086,32 +7086,32 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
+          <t>906 Heartwood, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$545,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
+          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>1,491</t>
+          <t>2,597</t>
         </is>
       </c>
     </row>
@@ -7121,32 +7121,32 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
+          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$739,900</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
+          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>3,482</t>
         </is>
       </c>
     </row>
@@ -7156,32 +7156,32 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
+          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$1,670,000</t>
+          <t>$1,071,430</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
+          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>5,397</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -7191,32 +7191,32 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>305 Amelia Ct, Lincoln, CA 95648</t>
+          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$689,801</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
+          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>1,491</t>
         </is>
       </c>
     </row>
@@ -7226,32 +7226,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
+          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$629,000</t>
+          <t>$739,900</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
+          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2,653</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -7261,32 +7261,32 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>372 Daylily, Lincoln, CA 95648</t>
+          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$644,900</t>
+          <t>$1,670,000</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
+          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1,837</t>
+          <t>5,397</t>
         </is>
       </c>
     </row>
@@ -7296,32 +7296,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
+          <t>305 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>$715,000</t>
+          <t>$689,801</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
+          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>1,967</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -7331,22 +7331,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>708 Yerington Ct, Lincoln, CA 95648</t>
+          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>$1,099,800</t>
+          <t>$629,000</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
+          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2,745</t>
+          <t>2,653</t>
         </is>
       </c>
     </row>
@@ -7366,32 +7366,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+          <t>372 Daylily, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>$790,000</t>
+          <t>$644,900</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
+          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>3,928</t>
+          <t>1,837</t>
         </is>
       </c>
     </row>
@@ -7401,17 +7401,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>$539,500</t>
+          <t>$715,000</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>1,967</t>
         </is>
       </c>
     </row>
@@ -7436,32 +7436,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+          <t>708 Yerington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>$677,705</t>
+          <t>$1,099,800</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,745</t>
         </is>
       </c>
     </row>
@@ -7471,17 +7471,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>$688,600</t>
+          <t>$790,000</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
+          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7491,10 +7491,80 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
+        <is>
+          <t>3,928</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>$539,500</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1,322</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>$677,705</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>2,290</t>
         </is>

--- a/Zillow_API/Lincoln_data.xlsx
+++ b/Zillow_API/Lincoln_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Perspective, Lincoln, CA 95648</t>
+          <t>Vertex, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$759,999+</t>
+          <t>$920,499+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2,332</t>
+          <t>2,546</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pinnacle, Lincoln, CA 95648</t>
+          <t>Perspective, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$968,499+</t>
+          <t>$759,999+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Perspective/home/186233469</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2,850</t>
+          <t>2,332</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>Pinnacle, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>$968,499+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Pinnacle/home/186245880</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2,850</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
+          <t>2712 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$670,990+</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
+          <t>/CA/Lincoln/2712-Nisenan-Valley-Dr-95648/home/177511844</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>River Plan 6, Lincoln, CA 95648</t>
+          <t>Mallard Plan 8, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$616,990+</t>
+          <t>$690,990+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lake Plan 5, Lincoln, CA 95648</t>
+          <t>Goldeneye Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$605,990+</t>
+          <t>$670,990+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Goldeneye-Plan-7/home/175335483</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Redwood Plan 2, Lincoln, CA 95648</t>
+          <t>River Plan 6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$512,990+</t>
+          <t>$616,990+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/River-Plan-6/home/175335484</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cedar Plan 1, Lincoln, CA 95648</t>
+          <t>Lake Plan 5, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$492,900+</t>
+          <t>$605,990+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Lake-Plan-5/home/175335485</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sutherland, Lincoln, CA 95648</t>
+          <t>Redwood Plan 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$607,950+</t>
+          <t>$512,990+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Redwood-Plan-2/home/175335488</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alan II, Lincoln, CA 95648</t>
+          <t>Cedar Plan 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$573,950+</t>
+          <t>$492,900+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Cedar-Plan-1/home/175335489</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sienna, Lincoln, CA 95648</t>
+          <t>Sutherland, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$582,950+</t>
+          <t>$607,950+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sutherland/home/177036947</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -856,22 +856,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Seth, Lincoln, CA 95648</t>
+          <t>Alan II, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$639,950+</t>
+          <t>$573,950+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Alan-II/home/177063621</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3,030</t>
+          <t>1,990</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Andrea, Lincoln, CA 95648</t>
+          <t>Sienna, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$622,950+</t>
+          <t>$582,950+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Sienna/home/177063623</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
+          <t>Seth, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$597,990+</t>
+          <t>$639,950+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Seth/home/177063626</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,622</t>
+          <t>3,030</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Plan 2050, Lincoln, CA 95648</t>
+          <t>Andrea, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$552,990+</t>
+          <t>$622,950+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
+          <t>/CA/Lincoln/Revere-at-Independence/Andrea/home/177537607</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2,050</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2622 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$533,990+</t>
+          <t>$597,990+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2622-Modeled/home/177860914</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>2,622</t>
         </is>
       </c>
     </row>
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Plan 2050, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$518,990+</t>
+          <t>$552,990+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-2050/home/177860915</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>2,050</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1066,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Plan 1862 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$560,990+</t>
+          <t>$533,990+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1862-Modeled/home/177860916</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$579,990+</t>
+          <t>$518,990+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-1/home/178716029</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,020</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$541,990+</t>
+          <t>$560,990+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-3/home/178716030</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2,310</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -1171,32 +1171,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Willow Plan 3, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$578,990+</t>
+          <t>$579,990+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-4/home/178716034</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -1206,17 +1206,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Residence 2145, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$602,504+</t>
+          <t>$541,990+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
+          <t>/CA/Lincoln/Encore-at-Meadowlands/Residence-2/home/178716037</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>2,310</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Residence 2679, Lincoln, CA 95648</t>
+          <t>Willow Plan 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$671,569+</t>
+          <t>$578,990+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Willow-Plan-3/home/181954147</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Residence 3104, Lincoln, CA 95648</t>
+          <t>Residence 2145, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$689,801+</t>
+          <t>$602,504+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2145/home/183828683</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -1311,17 +1311,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Residence 3312, Lincoln, CA 95648</t>
+          <t>Residence 2679, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$727,421+</t>
+          <t>$671,569+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-2679/home/183845220</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ascot Plan 7, Lincoln, CA 95648</t>
+          <t>Residence 3104, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$719,000+</t>
+          <t>$689,801+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3104/home/183861341</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Residence 4, Lincoln, CA 95648</t>
+          <t>Residence 3312, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$772,500+</t>
+          <t>$727,421+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
+          <t>/CA/Lincoln/The-Woods-at-Fullerton-Ranch/Residence-3312/home/183878528</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Residence 1, Lincoln, CA 95648</t>
+          <t>Ascot Plan 7, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$687,500+</t>
+          <t>$719,000+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
+          <t>/CA/Lincoln/Saratoga-at-Twelve-Bridges/Ascot-Plan-7/home/185514997</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -1451,32 +1451,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Residence 2, Lincoln, CA 95648</t>
+          <t>Residence 4, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$712,500+</t>
+          <t>$772,500+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-4/home/185605025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,627</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -1486,32 +1486,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Residence 3, Lincoln, CA 95648</t>
+          <t>Residence 1, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$722,500+</t>
+          <t>$687,500+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-1/home/185605158</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2,827</t>
+          <t>2,293</t>
         </is>
       </c>
     </row>
@@ -1521,32 +1521,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plan 4137, Lincoln, CA 95648</t>
+          <t>Residence 2, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$1,146,950+</t>
+          <t>$712,500+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-2/home/185605375</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4,137</t>
+          <t>2,627</t>
         </is>
       </c>
     </row>
@@ -1556,22 +1556,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan 2705, Lincoln, CA 95648</t>
+          <t>Residence 3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$978,950+</t>
+          <t>$722,500+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
+          <t>/CA/Lincoln/Cresleigh-Havenwood/Residence-3/home/185605668</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,827</t>
         </is>
       </c>
     </row>
@@ -1591,22 +1591,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Plan 3255, Lincoln, CA 95648</t>
+          <t>Plan 4137, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,066,950+</t>
+          <t>$1,146,950+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-4137/home/185606920</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>4,137</t>
         </is>
       </c>
     </row>
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Plan 2776, Lincoln, CA 95648</t>
+          <t>Plan 2705, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$1,021,950+</t>
+          <t>$978,950+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2705/home/185608463</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -1661,32 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plan 2360, Lincoln, CA 95648</t>
+          <t>Plan 3255, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$903,950+</t>
+          <t>$1,066,950+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-3255/home/185610028</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
+          <t>Plan 2776, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$508,990+</t>
+          <t>$1,021,950+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2776/home/185610287</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Affirm, Lincoln, CA 95648</t>
+          <t>Plan 2360, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$635,999+</t>
+          <t>$903,950+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
+          <t>/CA/Lincoln/Turkey-Creek-Estates/Plan-2360/home/185610348</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1,622</t>
+          <t>2,360</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Unite, Lincoln, CA 95648</t>
+          <t>Plan 1608 Modeled, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$612,999+</t>
+          <t>$508,990+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
+          <t>/CA/Lincoln/Copper-Ridge/Plan-1608-Modeled/home/185706228</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1,448</t>
+          <t>1,608</t>
         </is>
       </c>
     </row>
@@ -1801,17 +1801,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Explore, Lincoln, CA 95648</t>
+          <t>Affirm, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$674,999+</t>
+          <t>$635,999+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Affirm/home/186140901</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1,868</t>
+          <t>1,622</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Venture, Lincoln, CA 95648</t>
+          <t>Unite, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$707,999+</t>
+          <t>$612,999+</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Unite/home/186152747</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2,048</t>
+          <t>1,448</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Discover, Lincoln, CA 95648</t>
+          <t>Explore, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$739,999+</t>
+          <t>$674,999+</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Explore/home/186161487</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>1,868</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proclaim, Lincoln, CA 95648</t>
+          <t>Venture, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$744,999+</t>
+          <t>$707,999+</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Venture/home/186174942</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2,141</t>
+          <t>2,048</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vertex, Lincoln, CA 95648</t>
+          <t>Discover, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$920,499+</t>
+          <t>$739,999+</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Trilogy-Bickford/Vertex/home/186220148</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Discover/home/186186525</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2,546</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>100 Barley Ct, Lincoln, CA 95648</t>
+          <t>Proclaim, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$797,500</t>
+          <t>$744,999+</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
+          <t>/CA/Lincoln/Trilogy-Bickford/Proclaim/home/186210947</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,141</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2400 3rd St, Lincoln, CA 95648</t>
+          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$633,000</t>
+          <t>$1,195,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
+          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2,460</t>
+          <t>5,232</t>
         </is>
       </c>
     </row>
@@ -2046,32 +2046,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
+          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
+          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>7,465</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>420 7th St, Lincoln, CA 95648</t>
+          <t>100 Barley Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$699,900</t>
+          <t>$797,500</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
+          <t>/CA/Lincoln/100-Barley-CT-95648/home/185521838</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1,928</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2400 3rd St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$865,000</t>
+          <t>$633,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
+          <t>/CA/Lincoln/2400-3rd-St-95648/home/19640265</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3,489</t>
+          <t>2,460</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
+          <t>4053 Wilson Town Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$2,999,999</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
+          <t>/CA/Lincoln/4053-Wilson-Town-Rd-95648/home/19572709</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2,584</t>
+          <t>7,465</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3607 Camino Cielo, Lincoln, CA 95648</t>
+          <t>420 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$1,899,800</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3607-Camino-Cielo-95648/home/19596655</t>
+          <t>/CA/Lincoln/420-7th-St-95648/home/19585388</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5,736</t>
+          <t>1,928</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>849 Hadley Dr, Lincoln, CA 95648</t>
+          <t>845 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$969,000</t>
+          <t>$865,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
+          <t>/CA/Lincoln/845-Cross-Creek-Ln-95648/home/185395719</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>3,489</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>4427 E Catlett Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$2,999,999</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Lincoln/4427-E-Catlett-Rd-95648/home/19574184</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>2,584</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
+          <t>3607 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$692,929</t>
+          <t>$1,899,800</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
+          <t>/CA/Lincoln/3607-Camino-Cielo-95648/home/19596655</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>5,736</t>
         </is>
       </c>
     </row>
@@ -2326,32 +2326,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
+          <t>849 Hadley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$974,900</t>
+          <t>$969,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
+          <t>/CA/Lincoln/849-Hadley-Dr-95648/home/180665845</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3,833</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$2,800,000</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2396,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1084 Fullerton Ranch Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$692,929</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Lincoln/1084-Fullerton-Ranch-RD-Unknown/home/185215680</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -2431,32 +2431,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>387 Mcbean Park Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$974,900</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Lincoln/387-McBean-Park-Dr-95648/home/19585200</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>3,833</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>6040 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$2,800,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Lincoln/6040-McCourtney-Rd-95648/home/21654726</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>150.00</t>
         </is>
       </c>
     </row>
@@ -2501,17 +2501,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1308 Grant St, Lincoln, CA 95648</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$574,455</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -2536,32 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>796 Lodge Way, Lincoln, CA 95648</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$888,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/796-Lodge-Way-95648/home/180665851</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -2571,32 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>1308 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$570,000</t>
+          <t>$574,455</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
+          <t>/CA/Lincoln/1308-Grant-St-95648/home/180665086</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
+          <t>869 Wildomar Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
+          <t>/CA/Lincoln/869-Wildomar-Ln-95648/home/19638767</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1116 Fox Ln, Lincoln, CA 95648</t>
+          <t>3451 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$374,900</t>
+          <t>$570,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
+          <t>/CA/Lincoln/3451-Paseo-Tranquilo-95648/home/19604098</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -2711,17 +2711,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
+          <t>3496 Paseo Tranquilo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$439,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
+          <t>/CA/Lincoln/3496-Paseo-Tranquilo-95648/home/19603157</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1116 Fox Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$374,900</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
+          <t>/CA/Lincoln/1116-Fox-Ln-95648/home/19571446</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -2781,17 +2781,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
+          <t>0 1725 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$500,000</t>
+          <t>$439,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
+          <t>/CA/Lincoln/1725-Camino-Verdera-95648/home/19608924</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>0.80</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
+          <t>1550 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$1,399,000</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
+          <t>/CA/Lincoln/1550-Topanga-Ln-95648/unit-203/home/19593318</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3,371</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -2851,32 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>301 Felton Ct, Lincoln, CA 95648</t>
+          <t>0 Mccourtney Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$779,000</t>
+          <t>$500,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
+          <t>/CA/Lincoln/McCourtney-Rd-95648/home/144905145</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
+          <t>65 Serene Estates Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$3,850,000</t>
+          <t>$1,399,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
+          <t>/CA/Lincoln/65-Serene-Estates-Ln-95648/home/19574362</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2,069</t>
+          <t>3,371</t>
         </is>
       </c>
     </row>
@@ -2921,32 +2921,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>429 Fuente Pl, Lincoln, CA 95648</t>
+          <t>301 Felton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$779,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
+          <t>/CA/Lincoln/301-Felton-Ct-95648/home/180659806</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -2956,32 +2956,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>147 W Wise Rd, Lincoln, CA 95648</t>
+          <t>3501 Manzanita Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$3,850,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
+          <t>/CA/Lincoln/3501-Manzanita-Rd-95648/home/56994697</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2,069</t>
         </is>
       </c>
     </row>
@@ -2991,32 +2991,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>619 Valley View Cir, Lincoln, CA 95648</t>
+          <t>429 Fuente Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
+          <t>/CA/Lincoln/429-Fuente-Pl-95648/home/19605261</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
+          <t>147 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$619,000</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
+          <t>/CA/Lincoln/147-W-Wise-Rd-95648/home/186613656</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>4.70</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>619 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$749,950</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
+          <t>/CA/Lincoln/619-Valley-View-Cir-95648/home/145502799</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2,830</t>
+          <t>21.40</t>
         </is>
       </c>
     </row>
@@ -3096,32 +3096,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
+          <t>1111 Hollingsworth Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$619,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
+          <t>/CA/Lincoln/1111-Hollingsworth-Dr-95648/home/19585218</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>2,099</t>
         </is>
       </c>
     </row>
@@ -3131,32 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>145 W Wise Rd, Lincoln, CA 95648</t>
+          <t>1212 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$749,950</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/145-W-Wise-Rd-95648/home/173194504</t>
+          <t>/CA/Lincoln/1212-Lasso-Lake-Ln-95648/home/19607729</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1,845</t>
+          <t>2,830</t>
         </is>
       </c>
     </row>
@@ -3166,32 +3166,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Meadow Plan 13, Lincoln, CA 95648</t>
+          <t>4725 Garden Bar Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$870,990+</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
+          <t>/CA/Lincoln/4725-Garden-Bar-Rd-95648/home/19591665</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2,985</t>
+          <t>359.40</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Harbor Plan 12, Lincoln, CA 95648</t>
+          <t>145 W Wise Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$852,990+</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
+          <t>/CA/Lincoln/145-W-Wise-Rd-95648/home/173194504</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2,823</t>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Glacier Plan 11, Lincoln, CA 95648</t>
+          <t>Meadow Plan 13, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$822,990+</t>
+          <t>$870,990+</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Meadow-Plan-13/home/175335477</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2,655</t>
+          <t>2,985</t>
         </is>
       </c>
     </row>
@@ -3271,17 +3271,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Basin Plan 10, Lincoln, CA 95648</t>
+          <t>Harbor Plan 12, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$802,990+</t>
+          <t>$852,990+</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Harbor-Plan-12/home/175335478</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2,528</t>
+          <t>2,823</t>
         </is>
       </c>
     </row>
@@ -3306,17 +3306,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Quail Plan 9, Lincoln, CA 95648</t>
+          <t>Glacier Plan 11, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$702,990+</t>
+          <t>$822,990+</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Glacier-Plan-11/home/175335479</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>2,655</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mallard Plan 8, Lincoln, CA 95648</t>
+          <t>Basin Plan 10, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$690,990+</t>
+          <t>$802,990+</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Mallard-Plan-8/home/175335482</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Basin-Plan-10/home/175335480</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2,528</t>
         </is>
       </c>
     </row>
@@ -3376,22 +3376,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
+          <t>Quail Plan 9, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$539,000</t>
+          <t>$702,990+</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
+          <t>/CA/Lincoln/Esplanade-at-Turkey-Creek/Quail-Plan-9/home/175335481</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,843</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>584 - 588 L St, Lincoln, CA 95648</t>
+          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$2,890,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
+          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1,122</t>
+          <t>1,058</t>
         </is>
       </c>
     </row>
@@ -3446,32 +3446,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
+          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
+          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1,408</t>
+          <t>3,377</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>401 Via Vistoso, Lincoln, CA 95648</t>
+          <t>2267 Primrose Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$539,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
+          <t>/CA/Lincoln/2267-Primrose-Ln-95648/home/22427832</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1,843</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
+          <t>584 - 588 L St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
+          <t>/CA/Lincoln/584-L-St-95648/home/19585712</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1,122</t>
         </is>
       </c>
     </row>
@@ -3551,17 +3551,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1173 Lodge Way, Lincoln, CA 95648</t>
+          <t>1531 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$677,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
+          <t>/CA/Lincoln/1531-Carson-River-Dr-95648/home/185973127</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>1,408</t>
         </is>
       </c>
     </row>
@@ -3586,32 +3586,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1697 Donner Ln, Lincoln, CA 95648</t>
+          <t>401 Via Vistoso, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$800,000</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
+          <t>/CA/Lincoln/401-Via-Vistoso-95648/home/19607277</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2,363</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1168 Lodge Way, Lincoln, CA 95648</t>
+          <t>1586 Camino Verdera Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
+          <t>/CA/Lincoln/1586-Camino-Verdera-95648/home/19605254</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1,792</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>1173 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$705,000</t>
+          <t>$677,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
+          <t>/CA/Lincoln/1173-Lodge-Way-95648/home/185973037</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1,933</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
+          <t>1697 Donner Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$806,000</t>
+          <t>$800,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
+          <t>/CA/Lincoln/1697-Donner-Ln-95648/home/180666045</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2,266</t>
+          <t>2,363</t>
         </is>
       </c>
     </row>
@@ -3726,32 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
+          <t>1168 Lodge Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$1,299,900</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
+          <t>/CA/Lincoln/1168-Lodge-Way-95648/home/186003988</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3,433</t>
+          <t>1,792</t>
         </is>
       </c>
     </row>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>152 O St #6, Lincoln, CA 95648</t>
+          <t>1757 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$160,000</t>
+          <t>$705,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
+          <t>/CA/Lincoln/1757-Lake-Ridge-Ln-95648/home/186003910</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1,933</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>117 Cresta Ct, Lincoln, CA 95648</t>
+          <t>1714 Lakeridge Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$1,598,000</t>
+          <t>$806,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
+          <t>/CA/Lincoln/1714-Lake-Ridge-Ln-95648/home/185973186</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5,600</t>
+          <t>2,266</t>
         </is>
       </c>
     </row>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>310 Lexington Ct, Lincoln, CA 95648</t>
+          <t>8425 Lakeview Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$656,999</t>
+          <t>$1,299,900</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
+          <t>/CA/Lincoln/8425-Lakeview-Ln-95648/home/19637729</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>3,433</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
+          <t>152 O St #6, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$160,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
+          <t>/CA/Lincoln/152-O-St-95648/unit-6/home/186017626</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,277</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
+          <t>117 Cresta Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$1,598,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
+          <t>/CA/Lincoln/117-Cresta-Ct-95648/home/19605016</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>5,600</t>
         </is>
       </c>
     </row>
@@ -3936,17 +3936,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
+          <t>310 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$594,999</t>
+          <t>$656,999</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
+          <t>/CA/Lincoln/310-Lexington-Ct-95648/home/175779861</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2,237</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -3971,17 +3971,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1879 Echo Ln, Lincoln, CA 95648</t>
+          <t>1380 Lasso Lake Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$849,900</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
+          <t>/CA/Lincoln/1380-Lasso-Lake-Ln-95648/home/19607847</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>2,277</t>
         </is>
       </c>
     </row>
@@ -4006,32 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
+          <t>1359 Freschi Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
+          <t>/CA/Lincoln/1359-Freschi-Ln-95648/home/19602870</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2,832</t>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1660 Bella Cir, Lincoln, CA 95648</t>
+          <t>961 Lincolnshire Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$1,575,000</t>
+          <t>$594,999</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
+          <t>/CA/Lincoln/961-Lincolnshire-Cir-95648/home/173205290</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4,878</t>
+          <t>2,237</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1392 Grant St, Lincoln, CA 95648</t>
+          <t>1879 Echo Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$575,955</t>
+          <t>$849,900</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
+          <t>/CA/Lincoln/1879-Echo-Ln-95648/home/19619210</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2,534</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1258 Watson St, Lincoln, CA 95648</t>
+          <t>625 Chiselville Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$626,124</t>
+          <t>$734,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
+          <t>/CA/Lincoln/625-Chiselville-Ln-95648/home/173205532</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>2,832</t>
         </is>
       </c>
     </row>
@@ -4146,32 +4146,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
+          <t>1660 Bella Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$1,575,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
+          <t>/CA/Lincoln/1660-Bella-Cir-95648/home/19606334</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>4,878</t>
         </is>
       </c>
     </row>
@@ -4181,32 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
+          <t>1392 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$367,500</t>
+          <t>$575,955</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
+          <t>/CA/Lincoln/1392-Grant-St-95648/home/180665078</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1,065</t>
+          <t>2,534</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
+          <t>1258 Watson St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$875,500</t>
+          <t>$626,124</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
+          <t>/CA/Lincoln/1258-Watson-St-95648/home/180665097</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2,612</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>670 Blair Bridge Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$1,069,620</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
+          <t>/CA/Lincoln/670-Blair-Bridge-Rd-95648/home/173205886</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>1,400</t>
         </is>
       </c>
     </row>
@@ -4286,32 +4286,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>765 Valencia St, Lincoln, CA 95648</t>
+          <t>1530 Topanga Ln #203, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$749,990</t>
+          <t>$367,500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
+          <t>/CA/Lincoln/1530-Topanga-Ln-95648/unit-203/home/19593320</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3,061</t>
+          <t>1,065</t>
         </is>
       </c>
     </row>
@@ -4321,32 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0 Moore Rd, Lincoln, CA 95648</t>
+          <t>1647 Gingersnap Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$875,500</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
+          <t>/CA/Lincoln/1647-Gingersnap-Ln-95648/home/19642381</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>2,612</t>
         </is>
       </c>
     </row>
@@ -4356,32 +4356,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>2225 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$1,037,060</t>
+          <t>$1,069,620</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
+          <t>/CA/Lincoln/2225-Bethpage-Dr-95648/home/180666286</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -4391,22 +4391,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>330 Lexington Ct, Lincoln, CA 95648</t>
+          <t>765 Valencia St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$684,174</t>
+          <t>$749,990</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
+          <t>/CA/Lincoln/765-Valencia-St-95648/home/173206068</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2,779</t>
+          <t>3,061</t>
         </is>
       </c>
     </row>
@@ -4426,32 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>700 Karchner Rd, Lincoln, CA 95648</t>
+          <t>0 Moore Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$1,599,000</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
+          <t>/CA/Lincoln/Moore-Rd-95648/home/35621110</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4,172</t>
+          <t>9.80</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>5108 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$983,720</t>
+          <t>$1,037,060</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
+          <t>/CA/Lincoln/5108-Turnberry-Dr-95648/home/180666268</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>330 Lexington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$1,078,390</t>
+          <t>$684,174</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
+          <t>/CA/Lincoln/330-Lexington-Ct-95648/home/175779863</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3,255</t>
+          <t>2,779</t>
         </is>
       </c>
     </row>
@@ -4531,32 +4531,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
+          <t>700 Karchner Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$1,007,690</t>
+          <t>$1,599,000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
+          <t>/CA/Lincoln/700-Karchner-Rd-95648/home/19574605</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>4,172</t>
         </is>
       </c>
     </row>
@@ -4566,17 +4566,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
+          <t>2237 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$1,001,450</t>
+          <t>$983,720</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
+          <t>/CA/Lincoln/2237-Bethpage-Dr-95648/home/180666287</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4601,17 +4601,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>2242 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,078,390</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
+          <t>/CA/Lincoln/2242-Bethpage-Dr-95648/home/180666303</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3,255</t>
         </is>
       </c>
     </row>
@@ -4636,17 +4636,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>792 Riley Way, Lincoln, CA 95648</t>
+          <t>2266 Bethpage Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$779,900</t>
+          <t>$1,007,690</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
+          <t>/CA/Lincoln/2266-Bethpage-Dr-95648/home/180666301</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2,157</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4671,32 +4671,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1697 Storeyfield, Lincoln, CA 95648</t>
+          <t>5029 Turnberry Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$980,000</t>
+          <t>$1,001,450</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
+          <t>/CA/Lincoln/5029-Turnberry-Dr-95648/home/180666294</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3,717</t>
+          <t>2,705</t>
         </is>
       </c>
     </row>
@@ -4706,32 +4706,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2730 Virginiatown Rd, Lincoln, CA 95648</t>
+          <t>828 Cross Creek Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2730-Virginiatown-Rd-95648/home/19568865</t>
+          <t>/CA/Lincoln/828-Cross-Crk-Ln-95648/home/180641389</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>5,232</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -4741,32 +4741,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1422 Mockingbird Ln, Lincoln, CA 95648</t>
+          <t>792 Riley Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$779,900</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1422-Mockingbird-Ln-95648/home/19620960</t>
+          <t>/CA/Lincoln/792-Riley-Way-95648/home/180665952</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>2,157</t>
         </is>
       </c>
     </row>
@@ -4776,22 +4776,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>100 Trenton Ct, Lincoln, CA 95648</t>
+          <t>1697 Storeyfield, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$688,600</t>
+          <t>$980,000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
+          <t>/CA/Lincoln/1697-Storeyfield-Ln-95648/home/19043093</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>3,717</t>
         </is>
       </c>
     </row>
@@ -4811,17 +4811,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>121 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$688,691</t>
+          <t>$677,705</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
+          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2,530</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -4846,17 +4846,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
+          <t>100 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$685,142</t>
+          <t>$688,600</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
+          <t>/CA/Lincoln/100-Trenton-Ct-95648/home/175779912</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4881,17 +4881,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
+          <t>121 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$716,566</t>
+          <t>$688,691</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
+          <t>/CA/Lincoln/121-Trenton-Ct-95648/home/175779915</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,530</t>
         </is>
       </c>
     </row>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>101 Trenton Ct, Lincoln, CA 95648</t>
+          <t>2736 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$727,317</t>
+          <t>$685,142</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
+          <t>/CA/Lincoln/2736-Patriot-Dr-95648/home/175779859</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2,770</t>
+          <t>2,290</t>
         </is>
       </c>
     </row>
@@ -4951,32 +4951,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
+          <t>2724 Patriot Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$619,900</t>
+          <t>$716,566</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
+          <t>/CA/Lincoln/2724-Patriot-Dr-95648/home/175779858</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2,067</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -4986,32 +4986,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
+          <t>101 Trenton Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$727,317</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
+          <t>/CA/Lincoln/101-Trenton-Ct-95648/home/175779917</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,770</t>
         </is>
       </c>
     </row>
@@ -5021,22 +5021,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>500 Pickering Ct, Lincoln, CA 95648</t>
+          <t>1130 Wilson Ave, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$635,000</t>
+          <t>$619,900</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
+          <t>/CA/Lincoln/1130-Wilson-Ave-95648/home/185705821</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>2,067</t>
         </is>
       </c>
     </row>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
+          <t>643 Gold Strike Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$670,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
+          <t>/CA/Lincoln/643-Gold-Strike-Ct-95648/home/19636659</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1,529</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -5091,32 +5091,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
+          <t>500 Pickering Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$635,000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
+          <t>/CA/Lincoln/500-Pickering-Ct-95648/home/19597686</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>3,206</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -5126,32 +5126,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>103 Asti Ct, Lincoln, CA 95648</t>
+          <t>1087 Carson River Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$729,900</t>
+          <t>$670,000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
+          <t>/CA/Lincoln/1087-Carson-River-Dr-95648/home/180665997</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3,144</t>
+          <t>1,529</t>
         </is>
       </c>
     </row>
@@ -5161,32 +5161,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1129 Amelia Way, Lincoln, CA 95648</t>
+          <t>1177 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$602,504</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
+          <t>/CA/Lincoln/1177-Southwick-Ln-95648/home/19608777</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2,145</t>
+          <t>3,206</t>
         </is>
       </c>
     </row>
@@ -5196,32 +5196,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
+          <t>103 Asti Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$578,000</t>
+          <t>$729,900</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
+          <t>/CA/Lincoln/103-Asti-Ct-95648/home/19597584</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>3,144</t>
         </is>
       </c>
     </row>
@@ -5231,17 +5231,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
+          <t>1129 Amelia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$602,504</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
+          <t>/CA/Lincoln/1314-Earlham-Ln-95648/home/19596325</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3,281</t>
+          <t>2,145</t>
         </is>
       </c>
     </row>
@@ -5266,32 +5266,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
+          <t>1223 Hawthorne Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$578,000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
+          <t>/CA/Lincoln/1223-Hawthorne-Ln-95648/home/19603906</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5301,32 +5301,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1519 7th St, Lincoln, CA 95648</t>
+          <t>2748 Nisenan Valley Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$465,000</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
+          <t>/CA/Lincoln/2748-Nisenan-Valley-Dr-95648/home/173206611</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>3,281</t>
         </is>
       </c>
     </row>
@@ -5336,32 +5336,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
+          <t>3116 Ridgecrest Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$480,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
+          <t>/CA/Lincoln/3116-Ridgecrest-Dr-95648/home/173206789</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -5371,22 +5371,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1078 Montague Ln, Lincoln, CA 95648</t>
+          <t>1519 7th St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$615,000</t>
+          <t>$465,000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
+          <t>/CA/Lincoln/1519-7th-St-95648/home/19574041</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2,301</t>
+          <t>1,201</t>
         </is>
       </c>
     </row>
@@ -5406,32 +5406,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
+          <t>1848 Alpenglow Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$555,000</t>
+          <t>$480,000</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
+          <t>/CA/Lincoln/1848-Alpenglow-Ln-95648/home/19637280</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -5441,32 +5441,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>205 Akashi Ct, Lincoln, CA 95648</t>
+          <t>1078 Montague Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$719,000</t>
+          <t>$615,000</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
+          <t>/CA/Lincoln/1078-Montague-Ln-95648/home/19012767</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2,127</t>
+          <t>2,301</t>
         </is>
       </c>
     </row>
@@ -5476,17 +5476,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
+          <t>1609 Shamrock Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$829,000</t>
+          <t>$555,000</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
+          <t>/CA/Lincoln/1609-Shamrock-Ct-95648/home/19570930</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5496,12 +5496,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2,192</t>
+          <t>1,700</t>
         </is>
       </c>
     </row>
@@ -5511,17 +5511,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>205 Akashi Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$719,000</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Lincoln/205-Akashi-Ct-95648/home/180659812</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5531,12 +5531,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>2,127</t>
         </is>
       </c>
     </row>
@@ -5546,32 +5546,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>301 Tasso Pl, Lincoln, CA 95648</t>
+          <t>2556 Black Hawk Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$749,000</t>
+          <t>$829,000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
+          <t>/CA/Lincoln/2556-Black-Hawk-Ln-95648/home/19602625</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>3,236</t>
+          <t>2,192</t>
         </is>
       </c>
     </row>
@@ -5581,22 +5581,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>340 Lilac Ln, Lincoln, CA 95648</t>
+          <t>2003 Milan Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$539,950</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
+          <t>/CA/Lincoln/2003-Milan-Way-95648/home/19623662</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1,549</t>
+          <t>1,916</t>
         </is>
       </c>
     </row>
@@ -5616,32 +5616,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>306 Amelia Ct, Lincoln, CA 95648</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$744,373</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -5651,32 +5651,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
+          <t>301 Tasso Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$606,000</t>
+          <t>$749,000</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
+          <t>/CA/Lincoln/301-Tasso-Pl-95648/home/95968331</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1,651</t>
+          <t>3,236</t>
         </is>
       </c>
     </row>
@@ -5686,32 +5686,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
+          <t>340 Lilac Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$539,950</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
+          <t>/CA/Lincoln/340-Lilac-Ln-95648/home/19601818</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1,549</t>
         </is>
       </c>
     </row>
@@ -5721,17 +5721,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
+          <t>306 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$744,373</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
+          <t>/CA/Lincoln/306-Amelia-CT-Unknown/home/185351235</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -5756,22 +5756,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
+          <t>1416 Carson River Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$628,000</t>
+          <t>$606,000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
+          <t>/CA/Lincoln/1416-Carson-River-Dr-95648/home/186212310</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>1,651</t>
         </is>
       </c>
     </row>
@@ -5791,32 +5791,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
+          <t>5285 Nicolaus Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$745,000</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
+          <t>/CA/Lincoln/5285-Nicolaus-Rd-95648/home/19574957</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -5826,32 +5826,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
+          <t>260 Saint Lucia Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$565,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
+          <t>/CA/Lincoln/260-Saint-Lucia-Way-95648/home/19641462</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1,570</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
+          <t>1209 Barrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$628,000</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
+          <t>/CA/Lincoln/1209-Barrington-Ln-95648/home/19606376</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1,115</t>
+          <t>2,305</t>
         </is>
       </c>
     </row>
@@ -5896,32 +5896,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>696 Linley Ln, Lincoln, CA 95648</t>
+          <t>1760 Barn Valley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$745,000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
+          <t>/CA/Lincoln/1760-Barn-Valley-Ln-95648/home/19643079</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2,809</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -5931,32 +5931,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
+          <t>3283 Le Bourget Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$565,000</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
+          <t>/CA/Lincoln/3283-Le-Bourget-Ln-95648/home/173205037</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2,889</t>
+          <t>1,570</t>
         </is>
       </c>
     </row>
@@ -5966,22 +5966,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
+          <t>2520 Saint Andrews Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
+          <t>/CA/Lincoln/2520-Saint-Andrews-Dr-95648/home/19572121</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1,795</t>
+          <t>1,115</t>
         </is>
       </c>
     </row>
@@ -6001,32 +6001,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
+          <t>696 Linley Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$660,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
+          <t>/CA/Lincoln/696-Linley-Ln-95648/home/19608061</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>2,809</t>
         </is>
       </c>
     </row>
@@ -6036,32 +6036,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
+          <t>1126 E Kinnerly Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$749,500</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
+          <t>/CA/Lincoln/1126-Kinnerly-Ln-95648/home/19597195</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2,049</t>
+          <t>2,889</t>
         </is>
       </c>
     </row>
@@ -6071,32 +6071,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1416 Grant St, Lincoln, CA 95648</t>
+          <t>669 Rustic Ranch Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$626,016</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
+          <t>/CA/Lincoln/669-Rustic-Ranch-Ln-95648/home/19609093</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2,765</t>
+          <t>1,795</t>
         </is>
       </c>
     </row>
@@ -6106,32 +6106,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>5494 N Kilaga Springs Rd, Lincoln, CA 95648</t>
+          <t>1078 Mullinger Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$2,890,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/5494-N-Kilaga-Springs-Rd-95648/home/186099645</t>
+          <t>/CA/Lincoln/1078-Mullinger-Ln-95648/home/184083854</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>1,058</t>
+          <t>2,990</t>
         </is>
       </c>
     </row>
@@ -6141,32 +6141,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>824 Cross Creek Ln, Lincoln, CA 95648</t>
+          <t>1876 Creekcrest Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$749,500</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/824-Cross-Creek-LN-Unknown/home/180604383</t>
+          <t>/CA/Lincoln/1876-Creekcrest-Ln-95648/home/19635349</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3,377</t>
+          <t>2,049</t>
         </is>
       </c>
     </row>
@@ -6176,17 +6176,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
+          <t>1416 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$875,000</t>
+          <t>$626,016</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
+          <t>/CA/Lincoln/1416-Grant-St-95648/home/180665076</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>2,765</t>
         </is>
       </c>
     </row>
@@ -6211,17 +6211,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>319 Ferrari Way, Lincoln, CA 95648</t>
+          <t>1301 Earlton Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$589,000</t>
+          <t>$849,000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/319-Ferrari-Way-95648/home/19585283</t>
+          <t>/CA/Lincoln/1301-Earlton-Ln-95648/home/19602487</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6231,12 +6231,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1,742</t>
+          <t>4,235</t>
         </is>
       </c>
     </row>
@@ -6246,17 +6246,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1869 Camino Verdera, Lincoln, CA 95648</t>
+          <t>1496 Tucker Swallow Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$1,789,000</t>
+          <t>$624,500</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1869-Camino-Verdera-95648/home/19606802</t>
+          <t>/CA/Lincoln/1496-Tucker-Swallow-Dr-95648/home/186926370</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6266,12 +6266,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3,837</t>
+          <t>1,862</t>
         </is>
       </c>
     </row>
@@ -6281,22 +6281,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>822 Farrington Ln, Lincoln, CA 95648</t>
+          <t>248 Saddlehorn Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$569,000</t>
+          <t>$530,000</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/822-Farrington-Ln-95648/home/19606031</t>
+          <t>/CA/Lincoln/248-Saddlehorn-Loop-95648/home/19625033</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2,091</t>
+          <t>1,148</t>
         </is>
       </c>
     </row>
@@ -6316,32 +6316,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
+          <t>319 Ferrari Way, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$589,000</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
+          <t>/CA/Lincoln/319-Ferrari-Way-95648/home/19585283</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2,312</t>
+          <t>1,742</t>
         </is>
       </c>
     </row>
@@ -6351,32 +6351,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1320 Incline Dr #3, Lincoln, CA 95648</t>
+          <t>1869 Camino Verdera, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$1,789,000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1320-Incline-Dr-95648/unit-3/home/175590129</t>
+          <t>/CA/Lincoln/1869-Camino-Verdera-95648/home/19606802</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1,746</t>
+          <t>3,837</t>
         </is>
       </c>
     </row>
@@ -6386,32 +6386,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>107 Walden View Ct, Lincoln, CA 95648</t>
+          <t>822 Farrington Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$1,350,000</t>
+          <t>$569,000</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/107-Walden-View-Ct-95648/home/19602672</t>
+          <t>/CA/Lincoln/822-Farrington-Ln-95648/home/19606031</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2,813</t>
+          <t>2,091</t>
         </is>
       </c>
     </row>
@@ -6421,32 +6421,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
+          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$750,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
+          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2,846</t>
+          <t>2,312</t>
         </is>
       </c>
     </row>
@@ -6456,32 +6456,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
+          <t>1320 Incline Dr #3, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$599,900</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
+          <t>/CA/Lincoln/1320-Incline-Dr-95648/unit-3/home/175590129</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1,706</t>
+          <t>1,746</t>
         </is>
       </c>
     </row>
@@ -6491,32 +6491,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
+          <t>107 Walden View Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$526,500</t>
+          <t>$1,350,000</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
+          <t>/CA/Lincoln/107-Walden-View-Ct-95648/home/19602672</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>2,813</t>
         </is>
       </c>
     </row>
@@ -6526,32 +6526,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
+          <t>1598 La Guardia Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$609,900</t>
+          <t>$750,000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
+          <t>/CA/Lincoln/1598-La-Guardia-Cir-95648/home/19593085</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1,777</t>
+          <t>2,846</t>
         </is>
       </c>
     </row>
@@ -6561,32 +6561,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>304 Amelia Ct, Lincoln, CA 95648</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$692,069</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -6596,32 +6596,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>400 Sydney Ter, Lincoln, CA 95648</t>
+          <t>2747 Woodacre Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$785,313</t>
+          <t>$526,500</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
+          <t>/CA/Lincoln/2747-Woodacre-Ln-95648/home/19626504</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -6631,32 +6631,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>401 Sydney Ter, Lincoln, CA 95648</t>
+          <t>228 Saddlehorn Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$707,569</t>
+          <t>$609,900</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
+          <t>/CA/Lincoln/228-Saddlehorn-Loop-95648/home/19620454</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2,679</t>
+          <t>1,777</t>
         </is>
       </c>
     </row>
@@ -6666,17 +6666,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>303 Amelia Ct, Lincoln, CA 95648</t>
+          <t>304 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$732,873</t>
+          <t>$692,069</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
+          <t>/CA/Lincoln/304-Amelia-CT-Unknown/home/186662895</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6686,12 +6686,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3,312</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6701,17 +6701,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Undisclosed Address, Lincoln, CA 95648</t>
+          <t>400 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$595,000</t>
+          <t>$785,313</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/Undisclosed-address-95648/home/19608306</t>
+          <t>/CA/Lincoln/400-Sydney-TER-Unknown/home/186662355</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2,523</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6736,32 +6736,32 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
+          <t>401 Sydney Ter, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$540,000</t>
+          <t>$707,569</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
+          <t>/CA/Lincoln/401-Sydney-TER-Unknown/home/186662317</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1,621</t>
+          <t>2,679</t>
         </is>
       </c>
     </row>
@@ -6771,32 +6771,32 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>696 Geary Ln, Lincoln, CA 95648</t>
+          <t>303 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$518,000</t>
+          <t>$732,873</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
+          <t>/CA/Lincoln/303-Amelia-CT-Unknown/home/186661110</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1,449</t>
+          <t>3,312</t>
         </is>
       </c>
     </row>
@@ -6806,32 +6806,32 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
+          <t>1306 Southwick Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$489,900</t>
+          <t>$595,000</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
+          <t>/CA/Lincoln/1306-Southwick-Ln-95648/home/19608306</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1,155</t>
+          <t>2,523</t>
         </is>
       </c>
     </row>
@@ -6841,22 +6841,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
+          <t>1795 El Camino Verde Dr, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$639,000</t>
+          <t>$540,000</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
+          <t>/CA/Lincoln/1795-El-Camino-Verde-Dr-95648/home/19625069</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>1,621</t>
         </is>
       </c>
     </row>
@@ -6876,17 +6876,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>601 Yerington Pl, Lincoln, CA 95648</t>
+          <t>696 Geary Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$518,000</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
+          <t>/CA/Lincoln/696-Geary-Ln-95648/home/19629570</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>1,449</t>
         </is>
       </c>
     </row>
@@ -6911,17 +6911,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
+          <t>2107 Lockwood Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$489,900</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
+          <t>/CA/Lincoln/2107-Lockwood-Ln-95648/home/19624503</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>1,885</t>
+          <t>1,155</t>
         </is>
       </c>
     </row>
@@ -6946,32 +6946,32 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>700 Valley View Cir, Lincoln, CA 95648</t>
+          <t>1281 Tarapin Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$1,495,000</t>
+          <t>$639,000</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
+          <t>/CA/Lincoln/1281-Tarapin-Ln-95648/home/19042785</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>3,696</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -6981,32 +6981,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1440 Grant St, Lincoln, CA 95648</t>
+          <t>601 Yerington Pl, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$571,295</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
+          <t>/CA/Lincoln/601-Yerington-Pl-95648/home/19629012</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2,541</t>
+          <t>1,322</t>
         </is>
       </c>
     </row>
@@ -7016,32 +7016,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
+          <t>1700 Auburn Rd, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$869,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
+          <t>/CA/Lincoln/1700-Auburn-Rd-95648/home/19574746</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2,349</t>
+          <t>1,885</t>
         </is>
       </c>
     </row>
@@ -7051,17 +7051,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1642 Midford Ln, Lincoln, CA 95648</t>
+          <t>700 Valley View Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$625,000</t>
+          <t>$1,495,000</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
+          <t>/CA/Lincoln/700-Valley-View-Cir-95648/home/19574771</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7071,12 +7071,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2,582</t>
+          <t>3,696</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>906 Heartwood, Lincoln, CA 95648</t>
+          <t>1440 Grant St, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$700,000</t>
+          <t>$571,295</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
+          <t>/CA/Lincoln/1440-Grant-St-95648/home/180665074</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2,597</t>
+          <t>2,541</t>
         </is>
       </c>
     </row>
@@ -7121,22 +7121,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
+          <t>2110 Stone House Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$869,000</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
+          <t>/CA/Lincoln/2110-Stone-House-Cir-95648/home/19043238</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>3,482</t>
+          <t>2,349</t>
         </is>
       </c>
     </row>
@@ -7156,32 +7156,32 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
+          <t>1642 Midford Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$1,071,430</t>
+          <t>$625,000</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
+          <t>/CA/Lincoln/1642-Midford-Ln-95648/home/22422790</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2,776</t>
+          <t>2,582</t>
         </is>
       </c>
     </row>
@@ -7191,32 +7191,32 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
+          <t>906 Heartwood, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$545,000</t>
+          <t>$700,000</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
+          <t>/CA/Lincoln/906-Heartwood-St-95648/home/40117697</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>1,491</t>
+          <t>2,597</t>
         </is>
       </c>
     </row>
@@ -7226,32 +7226,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
+          <t>505 Soaring Hawk Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$739,900</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
+          <t>/CA/Lincoln/505-Soaring-Hawk-Ct-95648/home/19619563</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>1,854</t>
+          <t>3,482</t>
         </is>
       </c>
     </row>
@@ -7261,32 +7261,32 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
+          <t>420 Indian Run Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$1,670,000</t>
+          <t>$1,071,890</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
+          <t>/CA/Lincoln/420-Indian-Run-Ct-95648/home/180666306</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>5,397</t>
+          <t>2,776</t>
         </is>
       </c>
     </row>
@@ -7296,32 +7296,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>305 Amelia Ct, Lincoln, CA 95648</t>
+          <t>980 Dogwood Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>$689,801</t>
+          <t>$545,000</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
+          <t>/CA/Lincoln/980-Dogwood-Loop-95648/home/19522981</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>1,491</t>
         </is>
       </c>
     </row>
@@ -7331,32 +7331,32 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
+          <t>2603 Warbler Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>$629,000</t>
+          <t>$739,900</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
+          <t>/CA/Lincoln/2603-Warbler-Ln-95648/home/19607891</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2,653</t>
+          <t>1,854</t>
         </is>
       </c>
     </row>
@@ -7366,32 +7366,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>372 Daylily, Lincoln, CA 95648</t>
+          <t>3591 Camino Cielo, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>$644,900</t>
+          <t>$1,670,000</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
+          <t>/CA/Lincoln/3591-Camino-Cielo-95648/home/19598086</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>1,837</t>
+          <t>5,397</t>
         </is>
       </c>
     </row>
@@ -7401,32 +7401,32 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
+          <t>305 Amelia Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>$715,000</t>
+          <t>$689,801</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
+          <t>/CA/Lincoln/305-Amelia-CT-Unknown/home/186431474</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>1,967</t>
+          <t>3,104</t>
         </is>
       </c>
     </row>
@@ -7436,22 +7436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>708 Yerington Ct, Lincoln, CA 95648</t>
+          <t>1068 - 1068 Silverton Cir, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>$1,099,800</t>
+          <t>$629,000</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
+          <t>/CA/Lincoln/1068-Silverton-Cir-95648/home/22444711</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2,745</t>
+          <t>2,653</t>
         </is>
       </c>
     </row>
@@ -7471,32 +7471,32 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1320 Redcliffe Ln, Lincoln, CA 95648</t>
+          <t>372 Daylily, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>$790,000</t>
+          <t>$644,900</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1320-Redcliffe-Ln-95648/home/19597282</t>
+          <t>/CA/Lincoln/372-Daylily-Ln-95648/home/19601118</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>3,928</t>
+          <t>1,837</t>
         </is>
       </c>
     </row>
@@ -7506,17 +7506,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+          <t>1200 Sun Valley Loop, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>$539,500</t>
+          <t>$715,000</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+          <t>/CA/Lincoln/1200-Sun-Valley-Loop-95648/home/19621193</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>1,322</t>
+          <t>1,967</t>
         </is>
       </c>
     </row>
@@ -7541,32 +7541,67 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2712 Patriot Dr, Lincoln, CA 95648</t>
+          <t>708 Yerington Ct, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>$677,705</t>
+          <t>$1,099,800</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2712-Patriot-Dr-95648/home/175779855</t>
+          <t>/CA/Lincoln/708-Yerington-Ct-95648/home/19628642</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2,745</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1796 Farmgate Ln, Lincoln, CA 95648</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>$539,500</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>/CA/Lincoln/1796-Farmgate-Ln-95648/home/19640631</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>1,322</t>
         </is>
       </c>
     </row>
